--- a/tests/gait_old/data/manual_gait_results.xlsx
+++ b/tests/gait_old/data/manual_gait_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukasadamowicz/Documents/Packages/scikit-digital-health/test/gait/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukasadamowicz/Documents/Packages/scikit-digital-health/tests/gait_old/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CFEAB36-4ED1-EF45-98D7-0E3491AD2EE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BBE0DAC-1D24-4D4D-B0EB-6CB0A39E22A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="36980" windowHeight="27200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tmp" sheetId="1" r:id="rId1"/>
@@ -628,12 +628,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -714,9 +711,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -754,7 +751,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -860,7 +857,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1002,7 +999,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1013,7 +1010,7 @@
   <dimension ref="A1:AJ80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A80"/>
+      <selection activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1186,7 +1183,7 @@
         <v>3</v>
       </c>
       <c r="L2">
-        <v>8.1084745946523207E-2</v>
+        <v>8.1118785265830329E-2</v>
       </c>
       <c r="M2">
         <v>0.99639999999999995</v>
@@ -1257,27 +1254,27 @@
       </c>
       <c r="AD2">
         <f t="shared" ref="AD2:AD38" si="5">2*SQRT(2 * M2 * L2 - L2 * L2)</f>
-        <v>0.78742858900860146</v>
+        <v>0.787586840811203</v>
       </c>
       <c r="AE2">
         <f>AD3-AD2</f>
-        <v>1.215479227197036E-2</v>
+        <v>1.2125545649786407E-2</v>
       </c>
       <c r="AF2">
         <f>AD2+AD3</f>
-        <v>1.5870119702891734</v>
+        <v>1.5872992272721924</v>
       </c>
       <c r="AG2">
         <f>AF3-AF2</f>
-        <v>-7.7131781105017616E-3</v>
+        <v>-7.7145944548222545E-3</v>
       </c>
       <c r="AH2">
         <f t="shared" ref="AH2:AH33" si="6">AF2/P2</f>
-        <v>1.344925398550147</v>
+        <v>1.3451688366713497</v>
       </c>
       <c r="AI2">
         <f>AH3-AH2</f>
-        <v>4.0424419150442148E-2</v>
+        <v>4.0431718431606756E-2</v>
       </c>
       <c r="AJ2">
         <f t="shared" ref="AJ2:AJ33" si="7">60 / N2</f>
@@ -1319,7 +1316,7 @@
         <v>3</v>
       </c>
       <c r="L3">
-        <v>8.3722858785768697E-2</v>
+        <v>8.3751116400607603E-2</v>
       </c>
       <c r="M3">
         <v>0.99639999999999995</v>
@@ -1390,27 +1387,27 @@
       </c>
       <c r="AD3">
         <f t="shared" si="5"/>
-        <v>0.79958338128057183</v>
+        <v>0.79971238646098941</v>
       </c>
       <c r="AE3">
         <f t="shared" ref="AE3:AE66" si="19">AD4-AD3</f>
-        <v>-1.9867970382472011E-2</v>
+        <v>-1.9840140104608661E-2</v>
       </c>
       <c r="AF3">
         <f t="shared" ref="AF3:AF66" si="20">AD3+AD4</f>
-        <v>1.5792987921786716</v>
+        <v>1.5795846328173702</v>
       </c>
       <c r="AG3">
         <f t="shared" ref="AG3:AG66" si="21">AF4-AF3</f>
-        <v>-0.20834714161637091</v>
+        <v>-0.20870849836035488</v>
       </c>
       <c r="AH3">
         <f t="shared" si="6"/>
-        <v>1.3853498177005892</v>
+        <v>1.3856005551029564</v>
       </c>
       <c r="AI3">
         <f t="shared" ref="AI3:AI66" si="22">AH4-AH3</f>
-        <v>-0.16128584398424928</v>
+        <v>-0.16160400648062145</v>
       </c>
       <c r="AJ3">
         <f t="shared" si="7"/>
@@ -1452,7 +1449,7 @@
         <v>3</v>
       </c>
       <c r="L4">
-        <v>7.9435480783470097E-2</v>
+        <v>7.9468824916088296E-2</v>
       </c>
       <c r="M4">
         <v>0.99639999999999995</v>
@@ -1523,27 +1520,27 @@
       </c>
       <c r="AD4">
         <f t="shared" si="5"/>
-        <v>0.77971541089809981</v>
+        <v>0.77987224635638075</v>
       </c>
       <c r="AE4">
         <f t="shared" si="19"/>
-        <v>-0.18847917123389879</v>
+        <v>-0.18886835825574622</v>
       </c>
       <c r="AF4">
         <f t="shared" si="20"/>
-        <v>1.3709516505623007</v>
+        <v>1.3708761344570153</v>
       </c>
       <c r="AG4">
         <f t="shared" si="21"/>
-        <v>6.4687183237952972E-2</v>
+        <v>6.4613266753484666E-2</v>
       </c>
       <c r="AH4">
         <f t="shared" si="6"/>
-        <v>1.2240639737163399</v>
+        <v>1.223996548622335</v>
       </c>
       <c r="AI4">
         <f t="shared" si="22"/>
-        <v>5.7756413605315027E-2</v>
+        <v>5.7690416744182738E-2</v>
       </c>
       <c r="AJ4">
         <f t="shared" si="7"/>
@@ -1585,7 +1582,7 @@
         <v>3</v>
       </c>
       <c r="L5">
-        <v>4.4862881844888902E-2</v>
+        <v>4.4826796792551978E-2</v>
       </c>
       <c r="M5">
         <v>0.99639999999999995</v>
@@ -1656,27 +1653,27 @@
       </c>
       <c r="AD5">
         <f t="shared" si="5"/>
-        <v>0.59123623966420102</v>
+        <v>0.59100388810063453</v>
       </c>
       <c r="AE5">
         <f t="shared" si="19"/>
-        <v>0.25316635447185176</v>
+        <v>0.25348162500923077</v>
       </c>
       <c r="AF5">
         <f t="shared" si="20"/>
-        <v>1.4356388338002537</v>
+        <v>1.4354894012104999</v>
       </c>
       <c r="AG5">
         <f t="shared" si="21"/>
-        <v>0.20932991185340333</v>
+        <v>0.20965102974060823</v>
       </c>
       <c r="AH5">
         <f t="shared" si="6"/>
-        <v>1.2818203873216549</v>
+        <v>1.2816869653665177</v>
       </c>
       <c r="AI5">
         <f t="shared" si="22"/>
-        <v>0.18690170701196718</v>
+        <v>0.18718841941125741</v>
       </c>
       <c r="AJ5">
         <f t="shared" si="7"/>
@@ -1718,7 +1715,7 @@
         <v>3</v>
       </c>
       <c r="L6">
-        <v>9.3870762382693707E-2</v>
+        <v>9.3890158204969015E-2</v>
       </c>
       <c r="M6">
         <v>0.99639999999999995</v>
@@ -1789,27 +1786,27 @@
       </c>
       <c r="AD6">
         <f t="shared" si="5"/>
-        <v>0.84440259413605279</v>
+        <v>0.8444855131098653</v>
       </c>
       <c r="AE6">
         <f t="shared" si="19"/>
-        <v>-4.3836442618448657E-2</v>
+        <v>-4.383059526862243E-2</v>
       </c>
       <c r="AF6">
         <f t="shared" si="20"/>
-        <v>1.644968745653657</v>
+        <v>1.6451404309511082</v>
       </c>
       <c r="AG6">
         <f t="shared" si="21"/>
-        <v>-0.11771473344654115</v>
+        <v>-0.11766435734131453</v>
       </c>
       <c r="AH6">
         <f t="shared" si="6"/>
-        <v>1.4687220943336221</v>
+        <v>1.4688753847777751</v>
       </c>
       <c r="AI6">
         <f t="shared" si="22"/>
-        <v>-8.0309355963516849E-2</v>
+        <v>-8.0260772405235548E-2</v>
       </c>
       <c r="AJ6">
         <f t="shared" si="7"/>
@@ -1851,7 +1848,7 @@
         <v>3</v>
       </c>
       <c r="L7">
-        <v>8.3938264220864395E-2</v>
+        <v>8.3957735725619653E-2</v>
       </c>
       <c r="M7">
         <v>0.99639999999999995</v>
@@ -1922,27 +1919,27 @@
       </c>
       <c r="AD7">
         <f t="shared" si="5"/>
-        <v>0.80056615151760413</v>
+        <v>0.80065491784124287</v>
       </c>
       <c r="AE7">
         <f t="shared" si="19"/>
-        <v>-7.3878290828092275E-2</v>
+        <v>-7.38337620726921E-2</v>
       </c>
       <c r="AF7">
         <f t="shared" si="20"/>
-        <v>1.5272540122071159</v>
+        <v>1.5274760736097936</v>
       </c>
       <c r="AG7">
         <f t="shared" si="21"/>
-        <v>5.1380412282480581E-2</v>
+        <v>5.1473422886036291E-2</v>
       </c>
       <c r="AH7">
         <f t="shared" si="6"/>
-        <v>1.3884127383701053</v>
+        <v>1.3886146123725396</v>
       </c>
       <c r="AI7">
         <f t="shared" si="22"/>
-        <v>4.6709465711346043E-2</v>
+        <v>4.6794020805487557E-2</v>
       </c>
       <c r="AJ7">
         <f t="shared" si="7"/>
@@ -1984,7 +1981,7 @@
         <v>3</v>
       </c>
       <c r="L8">
-        <v>6.8610073194570007E-2</v>
+        <v>6.8636176668966584E-2</v>
       </c>
       <c r="M8">
         <v>0.99639999999999995</v>
@@ -2055,27 +2052,27 @@
       </c>
       <c r="AD8">
         <f t="shared" si="5"/>
-        <v>0.72668786068951186</v>
+        <v>0.72682115576855078</v>
       </c>
       <c r="AE8">
         <f t="shared" si="19"/>
-        <v>0.12525870311057286</v>
+        <v>0.1253071849587285</v>
       </c>
       <c r="AF8">
         <f t="shared" si="20"/>
-        <v>1.5786344244895965</v>
+        <v>1.5789494964958299</v>
       </c>
       <c r="AG8">
         <f t="shared" si="21"/>
-        <v>2.8054822801494517E-2</v>
+        <v>2.8091513350247732E-2</v>
       </c>
       <c r="AH8">
         <f t="shared" si="6"/>
-        <v>1.4351222040814513</v>
+        <v>1.4354086331780271</v>
       </c>
       <c r="AI8">
         <f t="shared" si="22"/>
-        <v>2.5504384364994914E-2</v>
+        <v>2.553773940931614E-2</v>
       </c>
       <c r="AJ8">
         <f t="shared" si="7"/>
@@ -2117,7 +2114,7 @@
         <v>3</v>
       </c>
       <c r="L9">
-        <v>9.5644915025561994E-2</v>
+        <v>9.5687902417013471E-2</v>
       </c>
       <c r="M9">
         <v>0.99639999999999995</v>
@@ -2188,27 +2185,27 @@
       </c>
       <c r="AD9">
         <f t="shared" si="5"/>
-        <v>0.85194656380008471</v>
+        <v>0.85212834072727928</v>
       </c>
       <c r="AE9">
         <f t="shared" si="19"/>
-        <v>-9.7203880309078339E-2</v>
+        <v>-9.721567160848088E-2</v>
       </c>
       <c r="AF9">
         <f t="shared" si="20"/>
-        <v>1.606689247291091</v>
+        <v>1.6070410098460777</v>
       </c>
       <c r="AG9">
         <f t="shared" si="21"/>
-        <v>-4.2406581139369903E-2</v>
+        <v>-4.2462870647079987E-2</v>
       </c>
       <c r="AH9">
         <f t="shared" si="6"/>
-        <v>1.4606265884464462</v>
+        <v>1.4609463725873433</v>
       </c>
       <c r="AI9">
         <f t="shared" si="22"/>
-        <v>-1.2216712380037853E-2</v>
+        <v>-1.2262910366049207E-2</v>
       </c>
       <c r="AJ9">
         <f t="shared" si="7"/>
@@ -2250,7 +2247,7 @@
         <v>3</v>
       </c>
       <c r="L10">
-        <v>7.4226572477173E-2</v>
+        <v>7.4261357766098768E-2</v>
       </c>
       <c r="M10">
         <v>0.99639999999999995</v>
@@ -2321,27 +2318,27 @@
       </c>
       <c r="AD10">
         <f t="shared" si="5"/>
-        <v>0.75474268349100637</v>
+        <v>0.7549126691187984</v>
       </c>
       <c r="AE10">
         <f t="shared" si="19"/>
-        <v>5.4797299169708324E-2</v>
+        <v>5.4752800961400894E-2</v>
       </c>
       <c r="AF10">
         <f t="shared" si="20"/>
-        <v>1.5642826661517211</v>
+        <v>1.5645781391989977</v>
       </c>
       <c r="AG10">
         <f t="shared" si="21"/>
-        <v>0.15141777724089267</v>
+        <v>0.15138215773851282</v>
       </c>
       <c r="AH10">
         <f t="shared" si="6"/>
-        <v>1.4484098760664084</v>
+        <v>1.4486834622212941</v>
       </c>
       <c r="AI10">
         <f t="shared" si="22"/>
-        <v>0.14020164559341897</v>
+        <v>0.14016866457269694</v>
       </c>
       <c r="AJ10">
         <f t="shared" si="7"/>
@@ -2383,7 +2380,7 @@
         <v>3</v>
       </c>
       <c r="L11">
-        <v>8.5919789276877004E-2</v>
+        <v>8.5947685685871578E-2</v>
       </c>
       <c r="M11">
         <v>0.99639999999999995</v>
@@ -2454,27 +2451,27 @@
       </c>
       <c r="AD11">
         <f t="shared" si="5"/>
-        <v>0.8095399826607147</v>
+        <v>0.80966547008019929</v>
       </c>
       <c r="AE11">
         <f t="shared" si="19"/>
-        <v>9.6620478071184346E-2</v>
+        <v>9.6629356777111819E-2</v>
       </c>
       <c r="AF11">
         <f t="shared" si="20"/>
-        <v>1.7157004433926137</v>
+        <v>1.7159602969375105</v>
       </c>
       <c r="AG11">
         <f t="shared" si="21"/>
-        <v>2.8870899453943277E-2</v>
+        <v>2.8880657107200225E-2</v>
       </c>
       <c r="AH11">
         <f t="shared" si="6"/>
-        <v>1.5886115216598273</v>
+        <v>1.588852126793991</v>
       </c>
       <c r="AI11">
         <f t="shared" si="22"/>
-        <v>2.6732314309206862E-2</v>
+        <v>2.6741349173333706E-2</v>
       </c>
       <c r="AJ11">
         <f t="shared" si="7"/>
@@ -2516,7 +2513,7 @@
         <v>3</v>
       </c>
       <c r="L12">
-        <v>0.108970416961696</v>
+        <v>0.1090047207118357</v>
       </c>
       <c r="M12">
         <v>0.99639999999999995</v>
@@ -2587,27 +2584,27 @@
       </c>
       <c r="AD12">
         <f t="shared" si="5"/>
-        <v>0.90616046073189904</v>
+        <v>0.90629482685731111</v>
       </c>
       <c r="AE12">
         <f t="shared" si="19"/>
-        <v>-6.7749578617241069E-2</v>
+        <v>-6.7748699669911372E-2</v>
       </c>
       <c r="AF12">
         <f t="shared" si="20"/>
-        <v>1.744571342846557</v>
+        <v>1.7448409540447107</v>
       </c>
       <c r="AG12">
         <f t="shared" si="21"/>
-        <v>-0.13103898530011548</v>
+        <v>-0.13100972883995898</v>
       </c>
       <c r="AH12">
         <f t="shared" si="6"/>
-        <v>1.6153438359690342</v>
+        <v>1.6155934759673247</v>
       </c>
       <c r="AI12">
         <f t="shared" si="22"/>
-        <v>-0.12133239379640326</v>
+        <v>-0.12130530448144361</v>
       </c>
       <c r="AJ12">
         <f t="shared" si="7"/>
@@ -2649,7 +2646,7 @@
         <v>3</v>
       </c>
       <c r="L13">
-        <v>9.2475358125507098E-2</v>
+        <v>9.2506721927442748E-2</v>
       </c>
       <c r="M13">
         <v>0.99639999999999995</v>
@@ -2720,27 +2717,27 @@
       </c>
       <c r="AD13">
         <f t="shared" si="5"/>
-        <v>0.83841088211465797</v>
+        <v>0.83854612718739974</v>
       </c>
       <c r="AE13">
         <f t="shared" si="19"/>
-        <v>-6.3289406682874527E-2</v>
+        <v>-6.3261029170047722E-2</v>
       </c>
       <c r="AF13">
         <f t="shared" si="20"/>
-        <v>1.6135323575464415</v>
+        <v>1.6138312252047518</v>
       </c>
       <c r="AG13">
         <f t="shared" si="21"/>
-        <v>-4.582077007534191E-2</v>
+        <v>-4.5775650690638159E-2</v>
       </c>
       <c r="AH13">
         <f t="shared" si="6"/>
-        <v>1.4940114421726309</v>
+        <v>1.4942881714858811</v>
       </c>
       <c r="AI13">
         <f t="shared" si="22"/>
-        <v>-4.2426638958649843E-2</v>
+        <v>-4.2384861750590863E-2</v>
       </c>
       <c r="AJ13">
         <f t="shared" si="7"/>
@@ -2782,7 +2779,7 @@
         <v>3</v>
       </c>
       <c r="L14">
-        <v>7.8462292646655801E-2</v>
+        <v>7.8496838333119032E-2</v>
       </c>
       <c r="M14">
         <v>0.99639999999999995</v>
@@ -2853,27 +2850,27 @@
       </c>
       <c r="AD14">
         <f t="shared" si="5"/>
-        <v>0.77512147543178345</v>
+        <v>0.77528509801735201</v>
       </c>
       <c r="AE14">
         <f t="shared" si="19"/>
-        <v>1.7468636607532728E-2</v>
+        <v>1.7485378479409563E-2</v>
       </c>
       <c r="AF14">
         <f t="shared" si="20"/>
-        <v>1.5677115874710996</v>
+        <v>1.5680555745141136</v>
       </c>
       <c r="AG14">
         <f t="shared" si="21"/>
-        <v>-3.1680825574574634E-2</v>
+        <v>-3.1651676366197146E-2</v>
       </c>
       <c r="AH14">
         <f t="shared" si="6"/>
-        <v>1.4515848032139811</v>
+        <v>1.4519033097352902</v>
       </c>
       <c r="AI14">
         <f t="shared" si="22"/>
-        <v>-2.9334097754235788E-2</v>
+        <v>-2.9307107746478822E-2</v>
       </c>
       <c r="AJ14">
         <f t="shared" si="7"/>
@@ -2915,7 +2912,7 @@
         <v>3</v>
       </c>
       <c r="L15">
-        <v>8.2199153044378304E-2</v>
+        <v>8.2238251238450466E-2</v>
       </c>
       <c r="M15">
         <v>0.99639999999999995</v>
@@ -2986,27 +2983,27 @@
       </c>
       <c r="AD15">
         <f t="shared" si="5"/>
-        <v>0.79259011203931617</v>
+        <v>0.79277047649676158</v>
       </c>
       <c r="AE15">
         <f t="shared" si="19"/>
-        <v>-4.9149462182107362E-2</v>
+        <v>-4.913705484560682E-2</v>
       </c>
       <c r="AF15">
         <f t="shared" si="20"/>
-        <v>1.536030761896525</v>
+        <v>1.5364038981479164</v>
       </c>
       <c r="AG15">
         <f t="shared" si="21"/>
-        <v>-7.1029611940272463E-2</v>
+        <v>-7.1140824533592495E-2</v>
       </c>
       <c r="AH15">
         <f t="shared" si="6"/>
-        <v>1.4222507054597453</v>
+        <v>1.4225962019888114</v>
       </c>
       <c r="AI15">
         <f t="shared" si="22"/>
-        <v>-6.5768159203956067E-2</v>
+        <v>-6.5871133827400508E-2</v>
       </c>
       <c r="AJ15">
         <f t="shared" si="7"/>
@@ -3048,7 +3045,7 @@
         <v>3</v>
       </c>
       <c r="L16">
-        <v>7.1934229927915205E-2</v>
+        <v>7.1972991766873468E-2</v>
       </c>
       <c r="M16">
         <v>0.99639999999999995</v>
@@ -3119,27 +3116,27 @@
       </c>
       <c r="AD16">
         <f t="shared" si="5"/>
-        <v>0.74344064985720881</v>
+        <v>0.74363342165115476</v>
       </c>
       <c r="AE16">
         <f t="shared" si="19"/>
-        <v>-2.1880149758165102E-2</v>
+        <v>-2.2003769687985564E-2</v>
       </c>
       <c r="AF16">
         <f t="shared" si="20"/>
-        <v>1.4650011499562525</v>
+        <v>1.465263073614324</v>
       </c>
       <c r="AG16">
         <f t="shared" si="21"/>
-        <v>9.8062579508724879E-2</v>
+        <v>9.8052767939485586E-2</v>
       </c>
       <c r="AH16">
         <f t="shared" si="6"/>
-        <v>1.3564825462557892</v>
+        <v>1.3567250681614109</v>
       </c>
       <c r="AI16">
         <f t="shared" si="22"/>
-        <v>3.9110069337940478E-2</v>
+        <v>3.9092647511633105E-2</v>
       </c>
       <c r="AJ16">
         <f t="shared" si="7"/>
@@ -3181,7 +3178,7 @@
         <v>3</v>
       </c>
       <c r="L17">
-        <v>6.7610157692169603E-2</v>
+        <v>6.7623589149746532E-2</v>
       </c>
       <c r="M17">
         <v>0.99639999999999995</v>
@@ -3252,27 +3249,27 @@
       </c>
       <c r="AD17">
         <f t="shared" si="5"/>
-        <v>0.72156050009904371</v>
+        <v>0.72162965196316919</v>
       </c>
       <c r="AE17">
         <f t="shared" si="19"/>
-        <v>0.11994272926689009</v>
+        <v>0.12005653762747104</v>
       </c>
       <c r="AF17">
         <f t="shared" si="20"/>
-        <v>1.5630637294649774</v>
+        <v>1.5633158415538095</v>
       </c>
       <c r="AG17">
         <f t="shared" si="21"/>
-        <v>5.8310731112467096E-2</v>
+        <v>5.832169449266944E-2</v>
       </c>
       <c r="AH17">
         <f t="shared" si="6"/>
-        <v>1.3955926155937297</v>
+        <v>1.395817715673044</v>
       </c>
       <c r="AI17">
         <f t="shared" si="22"/>
-        <v>2.6665683158414666E-2</v>
+        <v>2.6671351034393886E-2</v>
       </c>
       <c r="AJ17">
         <f t="shared" si="7"/>
@@ -3314,7 +3311,7 @@
         <v>3</v>
       </c>
       <c r="L18">
-        <v>9.3194021974125699E-2</v>
+        <v>9.3236642924937316E-2</v>
       </c>
       <c r="M18">
         <v>0.99639999999999995</v>
@@ -3385,27 +3382,27 @@
       </c>
       <c r="AD18">
         <f t="shared" si="5"/>
-        <v>0.8415032293659338</v>
+        <v>0.84168618959064023</v>
       </c>
       <c r="AE18">
         <f t="shared" si="19"/>
-        <v>-6.1631998154423218E-2</v>
+        <v>-6.1734843134801376E-2</v>
       </c>
       <c r="AF18">
         <f t="shared" si="20"/>
-        <v>1.6213744605774445</v>
+        <v>1.621637536046479</v>
       </c>
       <c r="AG18">
         <f t="shared" si="21"/>
-        <v>-0.1233987274326096</v>
+        <v>-0.12335782300079257</v>
       </c>
       <c r="AH18">
         <f t="shared" si="6"/>
-        <v>1.4222582987521444</v>
+        <v>1.4224890667074379</v>
       </c>
       <c r="AI18">
         <f t="shared" si="22"/>
-        <v>-0.10824449774790312</v>
+        <v>-0.10820861666736192</v>
       </c>
       <c r="AJ18">
         <f t="shared" si="7"/>
@@ -3447,7 +3444,7 @@
         <v>3</v>
       </c>
       <c r="L19">
-        <v>7.9468609064909004E-2</v>
+        <v>7.9485645062511295E-2</v>
       </c>
       <c r="M19">
         <v>0.99639999999999995</v>
@@ -3518,27 +3515,27 @@
       </c>
       <c r="AD19">
         <f t="shared" si="5"/>
-        <v>0.77987123121151058</v>
+        <v>0.77995134645583886</v>
       </c>
       <c r="AE19">
         <f t="shared" si="19"/>
-        <v>-6.1766729278186272E-2</v>
+        <v>-6.1622979865991301E-2</v>
       </c>
       <c r="AF19">
         <f t="shared" si="20"/>
-        <v>1.4979757331448349</v>
+        <v>1.4982797130456864</v>
       </c>
       <c r="AG19">
         <f t="shared" si="21"/>
-        <v>-0.14972820597880632</v>
+        <v>-0.14949540885166446</v>
       </c>
       <c r="AH19">
         <f t="shared" si="6"/>
-        <v>1.3140138010042413</v>
+        <v>1.314280450040076</v>
       </c>
       <c r="AI19">
         <f t="shared" si="22"/>
-        <v>-0.13134053156035641</v>
+        <v>-0.13113632355409166</v>
       </c>
       <c r="AJ19">
         <f t="shared" si="7"/>
@@ -3580,7 +3577,7 @@
         <v>3</v>
       </c>
       <c r="L20">
-        <v>6.6940780305142694E-2</v>
+        <v>6.6984027769002474E-2</v>
       </c>
       <c r="M20">
         <v>0.99639999999999995</v>
@@ -3651,27 +3648,27 @@
       </c>
       <c r="AD20">
         <f t="shared" si="5"/>
-        <v>0.71810450193332431</v>
+        <v>0.71832836658984756</v>
       </c>
       <c r="AE20">
         <f t="shared" si="19"/>
-        <v>-8.7961476700620045E-2</v>
+        <v>-8.7872428985673157E-2</v>
       </c>
       <c r="AF20">
         <f t="shared" si="20"/>
-        <v>1.3482475271660286</v>
+        <v>1.348784304194022</v>
       </c>
       <c r="AG20">
         <f t="shared" si="21"/>
-        <v>0.11944510622739868</v>
+        <v>0.11943722694679559</v>
       </c>
       <c r="AH20">
         <f t="shared" si="6"/>
-        <v>1.1826732694438848</v>
+        <v>1.1831441264859843</v>
       </c>
       <c r="AI20">
         <f t="shared" si="22"/>
-        <v>0.12776658180024647</v>
+        <v>0.12776795488974546</v>
       </c>
       <c r="AJ20">
         <f t="shared" si="7"/>
@@ -3713,7 +3710,7 @@
         <v>3</v>
       </c>
       <c r="L21">
-        <v>5.11260175284396E-2</v>
+        <v>5.117818069782671E-2</v>
       </c>
       <c r="M21">
         <v>0.99639999999999995</v>
@@ -3784,27 +3781,27 @@
       </c>
       <c r="AD21">
         <f t="shared" si="5"/>
-        <v>0.63014302523270427</v>
+        <v>0.6304559376041744</v>
       </c>
       <c r="AE21">
         <f t="shared" si="19"/>
-        <v>0.20740658292801872</v>
+        <v>0.20730965593246875</v>
       </c>
       <c r="AF21">
         <f t="shared" si="20"/>
-        <v>1.4676926333934273</v>
+        <v>1.4682215311408175</v>
       </c>
       <c r="AG21">
         <f t="shared" si="21"/>
-        <v>0.17023732445311923</v>
+        <v>0.17011462524457577</v>
       </c>
       <c r="AH21">
         <f t="shared" si="6"/>
-        <v>1.3104398512441313</v>
+        <v>1.3109120813757298</v>
       </c>
       <c r="AI21">
         <f t="shared" si="22"/>
-        <v>0.17858738316181988</v>
+        <v>0.17848442442917301</v>
       </c>
       <c r="AJ21">
         <f t="shared" si="7"/>
@@ -3846,7 +3843,7 @@
         <v>3</v>
       </c>
       <c r="L22">
-        <v>9.2275769892513695E-2</v>
+        <v>9.2325798083172275E-2</v>
       </c>
       <c r="M22">
         <v>0.99639999999999995</v>
@@ -3917,27 +3914,27 @@
       </c>
       <c r="AD22">
         <f t="shared" si="5"/>
-        <v>0.83754960816072299</v>
+        <v>0.83776559353664315</v>
       </c>
       <c r="AE22">
         <f t="shared" si="19"/>
-        <v>-3.7169258474899491E-2</v>
+        <v>-3.7195030687892872E-2</v>
       </c>
       <c r="AF22">
         <f t="shared" si="20"/>
-        <v>1.6379299578465465</v>
+        <v>1.6383361563853933</v>
       </c>
       <c r="AG22">
         <f t="shared" si="21"/>
-        <v>-1.349579039624671E-2</v>
+        <v>-1.3516743931310415E-2</v>
       </c>
       <c r="AH22">
         <f t="shared" si="6"/>
-        <v>1.4890272344059512</v>
+        <v>1.4893965058049028</v>
       </c>
       <c r="AI22">
         <f t="shared" si="22"/>
-        <v>1.5078476196178192E-2</v>
+        <v>1.5065913134062692E-2</v>
       </c>
       <c r="AJ22">
         <f t="shared" si="7"/>
@@ -3979,7 +3976,7 @@
         <v>3</v>
       </c>
       <c r="L23">
-        <v>8.3897515642176596E-2</v>
+        <v>8.3939231815959775E-2</v>
       </c>
       <c r="M23">
         <v>0.99639999999999995</v>
@@ -4050,27 +4047,27 @@
       </c>
       <c r="AD23">
         <f t="shared" si="5"/>
-        <v>0.8003803496858235</v>
+        <v>0.80057056284875028</v>
       </c>
       <c r="AE23">
         <f t="shared" si="19"/>
-        <v>2.3673468078652782E-2</v>
+        <v>2.3678286756582234E-2</v>
       </c>
       <c r="AF23">
         <f t="shared" si="20"/>
-        <v>1.6244341674502998</v>
+        <v>1.6248194124540829</v>
       </c>
       <c r="AG23">
         <f t="shared" si="21"/>
-        <v>-0.12669870549151474</v>
+        <v>-0.12659865446549912</v>
       </c>
       <c r="AH23">
         <f t="shared" si="6"/>
-        <v>1.5041057106021294</v>
+        <v>1.5044624189389655</v>
       </c>
       <c r="AI23">
         <f t="shared" si="22"/>
-        <v>-0.14252801791232494</v>
+        <v>-0.14244354804025305</v>
       </c>
       <c r="AJ23">
         <f t="shared" si="7"/>
@@ -4112,7 +4109,7 @@
         <v>3</v>
       </c>
       <c r="L24">
-        <v>8.9180739646171403E-2</v>
+        <v>8.9225034251346036E-2</v>
       </c>
       <c r="M24">
         <v>0.99639999999999995</v>
@@ -4183,27 +4180,27 @@
       </c>
       <c r="AD24">
         <f t="shared" si="5"/>
-        <v>0.82405381776447628</v>
+        <v>0.82424884960533251</v>
       </c>
       <c r="AE24">
         <f t="shared" si="19"/>
-        <v>-0.15037217357016763</v>
+        <v>-0.15027694122208135</v>
       </c>
       <c r="AF24">
         <f t="shared" si="20"/>
-        <v>1.497735461958785</v>
+        <v>1.4982207579885838</v>
       </c>
       <c r="AG24">
         <f t="shared" si="21"/>
-        <v>-2.1797487452215769E-2</v>
+        <v>-2.1848859368402085E-2</v>
       </c>
       <c r="AH24">
         <f t="shared" si="6"/>
-        <v>1.3615776926898044</v>
+        <v>1.3620188708987124</v>
       </c>
       <c r="AI24">
         <f t="shared" si="22"/>
-        <v>-4.3775929737510655E-2</v>
+        <v>-4.3829675702121706E-2</v>
       </c>
       <c r="AJ24">
         <f t="shared" si="7"/>
@@ -4245,7 +4242,7 @@
         <v>3</v>
       </c>
       <c r="L25">
-        <v>5.8662712392797502E-2</v>
+        <v>5.8714857386788062E-2</v>
       </c>
       <c r="M25">
         <v>0.99639999999999995</v>
@@ -4316,27 +4313,27 @@
       </c>
       <c r="AD25">
         <f t="shared" si="5"/>
-        <v>0.67368164419430865</v>
+        <v>0.67397190838325116</v>
       </c>
       <c r="AE25">
         <f t="shared" si="19"/>
-        <v>0.12857468611795209</v>
+        <v>0.12842808185367938</v>
       </c>
       <c r="AF25">
         <f t="shared" si="20"/>
-        <v>1.4759379745065693</v>
+        <v>1.4763718986201817</v>
       </c>
       <c r="AG25">
         <f t="shared" si="21"/>
-        <v>0.11332634668317998</v>
+        <v>0.11308733189119646</v>
       </c>
       <c r="AH25">
         <f t="shared" si="6"/>
-        <v>1.3178017629522938</v>
+        <v>1.3181891951965907</v>
       </c>
       <c r="AI25">
         <f t="shared" si="22"/>
-        <v>0.12698398358384178</v>
+        <v>0.12677374163193478</v>
       </c>
       <c r="AJ25">
         <f t="shared" si="7"/>
@@ -4378,7 +4375,7 @@
         <v>3</v>
       </c>
       <c r="L26">
-        <v>8.4309458925005507E-2</v>
+        <v>8.4341052389187168E-2</v>
       </c>
       <c r="M26">
         <v>0.99639999999999995</v>
@@ -4449,27 +4446,27 @@
       </c>
       <c r="AD26">
         <f t="shared" si="5"/>
-        <v>0.80225633031226073</v>
+        <v>0.80239999023693054</v>
       </c>
       <c r="AE26">
         <f t="shared" si="19"/>
-        <v>-1.5248339434772218E-2</v>
+        <v>-1.5340749962482803E-2</v>
       </c>
       <c r="AF26">
         <f t="shared" si="20"/>
-        <v>1.5892643211897493</v>
+        <v>1.5894592305113782</v>
       </c>
       <c r="AG26">
         <f t="shared" si="21"/>
-        <v>-3.27958986202328E-2</v>
+        <v>-3.274093588348137E-2</v>
       </c>
       <c r="AH26">
         <f t="shared" si="6"/>
-        <v>1.4447857465361356</v>
+        <v>1.4449629368285255</v>
       </c>
       <c r="AI26">
         <f t="shared" si="22"/>
-        <v>-5.5081797813353095E-2</v>
+        <v>-5.5035888053617699E-2</v>
       </c>
       <c r="AJ26">
         <f t="shared" si="7"/>
@@ -4511,7 +4508,7 @@
         <v>3</v>
       </c>
       <c r="L27">
-        <v>8.0994316396416105E-2</v>
+        <v>8.1005332070012384E-2</v>
       </c>
       <c r="M27">
         <v>0.99639999999999995</v>
@@ -4582,27 +4579,27 @@
       </c>
       <c r="AD27">
         <f t="shared" si="5"/>
-        <v>0.78700799087748852</v>
+        <v>0.78705924027444774</v>
       </c>
       <c r="AE27">
         <f t="shared" si="19"/>
-        <v>-1.7547559185460693E-2</v>
+        <v>-1.7400185920998568E-2</v>
       </c>
       <c r="AF27">
         <f t="shared" si="20"/>
-        <v>1.5564684225695165</v>
+        <v>1.5567182946278968</v>
       </c>
       <c r="AG27">
         <f t="shared" si="21"/>
-        <v>2.5198526353027439E-3</v>
+        <v>2.6589288628633412E-3</v>
       </c>
       <c r="AH27">
         <f t="shared" si="6"/>
-        <v>1.3897039487227825</v>
+        <v>1.3899270487749078</v>
       </c>
       <c r="AI27">
         <f t="shared" si="22"/>
-        <v>-2.2170373981712954E-2</v>
+        <v>-2.2052291326872586E-2</v>
       </c>
       <c r="AJ27">
         <f t="shared" si="7"/>
@@ -4644,7 +4641,7 @@
         <v>3</v>
       </c>
       <c r="L28">
-        <v>7.7272358692722407E-2</v>
+        <v>7.7313934926147077E-2</v>
       </c>
       <c r="M28">
         <v>0.99639999999999995</v>
@@ -4715,27 +4712,27 @@
       </c>
       <c r="AD28">
         <f t="shared" si="5"/>
-        <v>0.76946043169202782</v>
+        <v>0.76965905435344917</v>
       </c>
       <c r="AE28">
         <f t="shared" si="19"/>
-        <v>2.0067411820763659E-2</v>
+        <v>2.0059114783861687E-2</v>
       </c>
       <c r="AF28">
         <f t="shared" si="20"/>
-        <v>1.5589882752048192</v>
+        <v>1.5593772234907601</v>
       </c>
       <c r="AG28">
         <f t="shared" si="21"/>
-        <v>9.4484145869693226E-2</v>
+        <v>9.4410660328453799E-2</v>
       </c>
       <c r="AH28">
         <f t="shared" si="6"/>
-        <v>1.3675335747410695</v>
+        <v>1.3678747574480352</v>
       </c>
       <c r="AI28">
         <f t="shared" si="22"/>
-        <v>8.2880829710257231E-2</v>
+        <v>8.2816368709170085E-2</v>
       </c>
       <c r="AJ28">
         <f t="shared" si="7"/>
@@ -4777,7 +4774,7 @@
         <v>3</v>
       </c>
       <c r="L29">
-        <v>8.1536946816896397E-2</v>
+        <v>8.1578015495034462E-2</v>
       </c>
       <c r="M29">
         <v>0.99639999999999995</v>
@@ -4848,27 +4845,27 @@
       </c>
       <c r="AD29">
         <f t="shared" si="5"/>
-        <v>0.78952784351279148</v>
+        <v>0.78971816913731085</v>
       </c>
       <c r="AE29">
         <f t="shared" si="19"/>
-        <v>7.4416734048929456E-2</v>
+        <v>7.4351545544592224E-2</v>
       </c>
       <c r="AF29">
         <f t="shared" si="20"/>
-        <v>1.6534724210745124</v>
+        <v>1.6537878838192139</v>
       </c>
       <c r="AG29">
         <f t="shared" si="21"/>
-        <v>-2.4359062735470172E-2</v>
+        <v>-2.4329981369166864E-2</v>
       </c>
       <c r="AH29">
         <f t="shared" si="6"/>
-        <v>1.4504144044513267</v>
+        <v>1.4506911261572053</v>
       </c>
       <c r="AI29">
         <f t="shared" si="22"/>
-        <v>-2.136759889076334E-2</v>
+        <v>-2.1342088920321745E-2</v>
       </c>
       <c r="AJ29">
         <f t="shared" si="7"/>
@@ -4910,7 +4907,7 @@
         <v>3</v>
       </c>
       <c r="L30">
-        <v>9.8506408461768294E-2</v>
+        <v>9.8536512579788849E-2</v>
       </c>
       <c r="M30">
         <v>0.99639999999999995</v>
@@ -4981,27 +4978,27 @@
       </c>
       <c r="AD30">
         <f t="shared" si="5"/>
-        <v>0.86394457756172094</v>
+        <v>0.86406971468190308</v>
       </c>
       <c r="AE30">
         <f t="shared" si="19"/>
-        <v>-9.8775796784399739E-2</v>
+        <v>-9.8681526913759199E-2</v>
       </c>
       <c r="AF30">
         <f t="shared" si="20"/>
-        <v>1.6291133583390423</v>
+        <v>1.6294579024500471</v>
       </c>
       <c r="AG30">
         <f t="shared" si="21"/>
-        <v>-0.11276655441860983</v>
+        <v>-0.11264922425799861</v>
       </c>
       <c r="AH30">
         <f t="shared" si="6"/>
-        <v>1.4290468055605634</v>
+        <v>1.4293490372368836</v>
       </c>
       <c r="AI30">
         <f t="shared" si="22"/>
-        <v>-9.8918030191762929E-2</v>
+        <v>-9.8815108998244527E-2</v>
       </c>
       <c r="AJ30">
         <f t="shared" si="7"/>
@@ -5043,7 +5040,7 @@
         <v>3</v>
       </c>
       <c r="L31">
-        <v>7.6377095811774404E-2</v>
+        <v>7.6422722831564108E-2</v>
       </c>
       <c r="M31">
         <v>0.99639999999999995</v>
@@ -5114,27 +5111,27 @@
       </c>
       <c r="AD31">
         <f t="shared" si="5"/>
-        <v>0.7651687807773212</v>
+        <v>0.76538818776814388</v>
       </c>
       <c r="AE31">
         <f t="shared" si="19"/>
-        <v>-1.3990757634209983E-2</v>
+        <v>-1.3967697344239416E-2</v>
       </c>
       <c r="AF31">
         <f t="shared" si="20"/>
-        <v>1.5163468039204324</v>
+        <v>1.5168086781920485</v>
       </c>
       <c r="AG31">
         <f t="shared" si="21"/>
-        <v>-2.709381975339209E-3</v>
+        <v>-2.7442241341810725E-3</v>
       </c>
       <c r="AH31">
         <f t="shared" si="6"/>
-        <v>1.3301287753688005</v>
+        <v>1.330533928238639</v>
       </c>
       <c r="AI31">
         <f t="shared" si="22"/>
-        <v>2.1333208510746937E-2</v>
+        <v>2.1309334313028172E-2</v>
       </c>
       <c r="AJ31">
         <f t="shared" si="7"/>
@@ -5176,7 +5173,7 @@
         <v>3</v>
       </c>
       <c r="L32">
-        <v>7.3499217474217393E-2</v>
+        <v>7.3548564695933988E-2</v>
       </c>
       <c r="M32">
         <v>0.99639999999999995</v>
@@ -5247,27 +5244,27 @@
       </c>
       <c r="AD32">
         <f t="shared" si="5"/>
-        <v>0.75117802314311122</v>
+        <v>0.75142049042390446</v>
       </c>
       <c r="AE32">
         <f t="shared" si="19"/>
-        <v>1.1281375658870663E-2</v>
+        <v>1.1223473210058454E-2</v>
       </c>
       <c r="AF32">
         <f t="shared" si="20"/>
-        <v>1.5136374219450932</v>
+        <v>1.5140644540578674</v>
       </c>
       <c r="AG32">
         <f t="shared" si="21"/>
-        <v>-4.7536283700275739E-3</v>
+        <v>-4.8016756724760246E-3</v>
       </c>
       <c r="AH32">
         <f t="shared" si="6"/>
-        <v>1.3514619838795474</v>
+        <v>1.3518432625516672</v>
       </c>
       <c r="AI32">
         <f t="shared" si="22"/>
-        <v>4.5652639801068817E-2</v>
+        <v>4.5622272990361701E-2</v>
       </c>
       <c r="AJ32">
         <f t="shared" si="7"/>
@@ -5309,7 +5306,7 @@
         <v>3</v>
       </c>
       <c r="L33">
-        <v>7.5814927182375993E-2</v>
+        <v>7.5853148295444095E-2</v>
       </c>
       <c r="M33">
         <v>0.99639999999999995</v>
@@ -5380,27 +5377,27 @@
       </c>
       <c r="AD33">
         <f t="shared" si="5"/>
-        <v>0.76245939880198188</v>
+        <v>0.76264396363396292</v>
       </c>
       <c r="AE33">
         <f t="shared" si="19"/>
-        <v>-1.6035004028898237E-2</v>
+        <v>-1.6025148882534479E-2</v>
       </c>
       <c r="AF33">
         <f t="shared" si="20"/>
-        <v>1.5088837935750656</v>
+        <v>1.5092627783853914</v>
       </c>
       <c r="AG33">
         <f t="shared" si="21"/>
-        <v>-0.15244932567730141</v>
+        <v>-0.15225263362034225</v>
       </c>
       <c r="AH33">
         <f t="shared" si="6"/>
-        <v>1.3971146236806162</v>
+        <v>1.3974655355420289</v>
       </c>
       <c r="AI33">
         <f t="shared" si="22"/>
-        <v>-0.1639923801371943</v>
+        <v>-0.1638199493919843</v>
       </c>
       <c r="AJ33">
         <f t="shared" si="7"/>
@@ -5442,7 +5439,7 @@
         <v>3</v>
       </c>
       <c r="L34">
-        <v>7.2535499263063505E-2</v>
+        <v>7.2574774989991403E-2</v>
       </c>
       <c r="M34">
         <v>0.99639999999999995</v>
@@ -5513,27 +5510,27 @@
       </c>
       <c r="AD34">
         <f t="shared" si="5"/>
-        <v>0.74642439477308364</v>
+        <v>0.74661881475142844</v>
       </c>
       <c r="AE34">
         <f t="shared" si="19"/>
-        <v>-0.13641432164840317</v>
+        <v>-0.13622748473780788</v>
       </c>
       <c r="AF34">
         <f t="shared" si="20"/>
-        <v>1.3564344678977642</v>
+        <v>1.3570101447650491</v>
       </c>
       <c r="AG34">
         <f t="shared" si="21"/>
-        <v>1.9261766762944443E-2</v>
+        <v>1.9251049205650794E-2</v>
       </c>
       <c r="AH34">
         <f t="shared" ref="AH34:AH65" si="28">AF34/P34</f>
-        <v>1.2331222435434219</v>
+        <v>1.2336455861500446</v>
       </c>
       <c r="AI34">
         <f t="shared" si="22"/>
-        <v>-2.6371160507712377E-2</v>
+        <v>-2.6398924772237597E-2</v>
       </c>
       <c r="AJ34">
         <f t="shared" ref="AJ34:AJ65" si="29">60 / N34</f>
@@ -5575,7 +5572,7 @@
         <v>3</v>
       </c>
       <c r="L35">
-        <v>4.7830082876541197E-2</v>
+        <v>4.7891399057946961E-2</v>
       </c>
       <c r="M35">
         <v>0.99639999999999995</v>
@@ -5646,27 +5643,27 @@
       </c>
       <c r="AD35">
         <f t="shared" si="5"/>
-        <v>0.61001007312468047</v>
+        <v>0.61039133001362056</v>
       </c>
       <c r="AE35">
         <f t="shared" si="19"/>
-        <v>0.15567608841134761</v>
+        <v>0.15547853394345867</v>
       </c>
       <c r="AF35">
         <f t="shared" si="20"/>
-        <v>1.3756962346607087</v>
+        <v>1.3762611939706999</v>
       </c>
       <c r="AG35">
         <f t="shared" si="21"/>
-        <v>0.16547052914723581</v>
+        <v>0.16527527899810934</v>
       </c>
       <c r="AH35">
         <f t="shared" si="28"/>
-        <v>1.2067510830357095</v>
+        <v>1.207246661377807</v>
       </c>
       <c r="AI35">
         <f t="shared" si="22"/>
-        <v>0.14514958697125935</v>
+        <v>0.1449783149106223</v>
       </c>
       <c r="AJ35">
         <f t="shared" si="29"/>
@@ -5708,7 +5705,7 @@
         <v>3</v>
       </c>
       <c r="L36">
-        <v>7.6484712863159401E-2</v>
+        <v>7.6522944154714112E-2</v>
       </c>
       <c r="M36">
         <v>0.99639999999999995</v>
@@ -5779,27 +5776,27 @@
       </c>
       <c r="AD36">
         <f t="shared" si="5"/>
-        <v>0.76568616153602809</v>
+        <v>0.76586986395707923</v>
       </c>
       <c r="AE36">
         <f t="shared" si="19"/>
-        <v>9.7944407358883101E-3</v>
+        <v>9.7967450546508905E-3</v>
       </c>
       <c r="AF36">
         <f t="shared" si="20"/>
-        <v>1.5411667638079445</v>
-      </c>
-      <c r="AG36" s="3">
+        <v>1.5415364729688092</v>
+      </c>
+      <c r="AG36">
         <f t="shared" si="21"/>
-        <v>-1.9192942326995865E-2</v>
+        <v>-1.9152869942261841E-2</v>
       </c>
       <c r="AH36">
         <f t="shared" si="28"/>
-        <v>1.3519006700069689</v>
-      </c>
-      <c r="AI36" s="3">
+        <v>1.3522249762884293</v>
+      </c>
+      <c r="AI36">
         <f t="shared" si="22"/>
-        <v>-3.9854272178564853E-2</v>
+        <v>-3.9825318506922835E-2</v>
       </c>
       <c r="AJ36">
         <f t="shared" si="29"/>
@@ -5841,7 +5838,7 @@
         <v>2</v>
       </c>
       <c r="L37">
-        <v>7.8538126472726594E-2</v>
+        <v>7.8577420240675849E-2</v>
       </c>
       <c r="M37">
         <v>0.99639999999999995</v>
@@ -5912,27 +5909,27 @@
       </c>
       <c r="AD37">
         <f t="shared" si="5"/>
-        <v>0.7754806022719164</v>
-      </c>
-      <c r="AE37" s="3">
+        <v>0.77566660901173012</v>
+      </c>
+      <c r="AE37">
         <f t="shared" si="19"/>
-        <v>-2.8987383062884065E-2</v>
+        <v>-2.8949614996912842E-2</v>
       </c>
       <c r="AF37">
         <f t="shared" si="20"/>
-        <v>1.5219738214809486</v>
+        <v>1.5223836030265474</v>
       </c>
       <c r="AG37" s="1">
         <f t="shared" si="21"/>
-        <v>-1.5219738214809486</v>
-      </c>
-      <c r="AH37" s="3">
+        <v>-1.5223836030265474</v>
+      </c>
+      <c r="AH37">
         <f t="shared" si="28"/>
-        <v>1.312046397828404</v>
+        <v>1.3123996577815065</v>
       </c>
       <c r="AI37" s="1">
         <f t="shared" si="22"/>
-        <v>-1.312046397828404</v>
+        <v>-1.3123996577815065</v>
       </c>
       <c r="AJ37">
         <f t="shared" si="29"/>
@@ -5974,7 +5971,7 @@
         <v>1</v>
       </c>
       <c r="L38">
-        <v>7.25494014621553E-2</v>
+        <v>7.2594613182858286E-2</v>
       </c>
       <c r="M38">
         <v>0.99639999999999995</v>
@@ -6045,11 +6042,11 @@
       </c>
       <c r="AD38">
         <f t="shared" si="5"/>
-        <v>0.74649321920903233</v>
+        <v>0.74671699401481728</v>
       </c>
       <c r="AE38" s="1">
         <f t="shared" si="19"/>
-        <v>-0.74649321920903233</v>
+        <v>-0.74671699401481728</v>
       </c>
       <c r="AF38" s="1"/>
       <c r="AG38" s="1">
@@ -6126,7 +6123,7 @@
         <f t="shared" si="12"/>
         <v>0.76</v>
       </c>
-      <c r="S39" s="2">
+      <c r="S39" s="1">
         <f t="shared" si="13"/>
         <v>4.0000000000000036E-2</v>
       </c>
@@ -6173,12 +6170,12 @@
       <c r="AD39" s="1"/>
       <c r="AE39" s="1">
         <f t="shared" si="19"/>
-        <v>0.58847340794239777</v>
+        <v>0.58870287056761084</v>
       </c>
       <c r="AF39" s="1"/>
       <c r="AG39" s="1">
         <f t="shared" si="21"/>
-        <v>1.2316695328745202</v>
+        <v>1.2322507421629183</v>
       </c>
       <c r="AH39" s="1">
         <f t="shared" si="28"/>
@@ -6186,7 +6183,7 @@
       </c>
       <c r="AI39" s="1">
         <f t="shared" si="22"/>
-        <v>1.0095651908807544</v>
+        <v>1.0100415919368182</v>
       </c>
       <c r="AJ39" s="1">
         <f t="shared" si="29"/>
@@ -6228,7 +6225,7 @@
         <v>3</v>
       </c>
       <c r="L40">
-        <v>4.4434810491389302E-2</v>
+        <v>4.4470279618099282E-2</v>
       </c>
       <c r="M40">
         <v>0.99639999999999995</v>
@@ -6299,27 +6296,27 @@
       </c>
       <c r="AD40">
         <f t="shared" ref="AD40:AD49" si="30">2*SQRT(2 * M40 * L40 - L40 * L40)</f>
-        <v>0.58847340794239777</v>
+        <v>0.58870287056761084</v>
       </c>
       <c r="AE40">
         <f t="shared" si="19"/>
-        <v>5.4722716989724529E-2</v>
+        <v>5.4845001027696627E-2</v>
       </c>
       <c r="AF40">
         <f t="shared" si="20"/>
-        <v>1.2316695328745202</v>
+        <v>1.2322507421629183</v>
       </c>
       <c r="AG40">
         <f t="shared" si="21"/>
-        <v>5.458660656867087E-2</v>
+        <v>5.4796356331439977E-2</v>
       </c>
       <c r="AH40">
         <f t="shared" si="28"/>
-        <v>1.0095651908807544</v>
+        <v>1.0100415919368182</v>
       </c>
       <c r="AI40">
         <f t="shared" si="22"/>
-        <v>8.0482384918560079E-2</v>
+        <v>8.0676288143146424E-2</v>
       </c>
       <c r="AJ40">
         <f t="shared" si="29"/>
@@ -6361,7 +6358,7 @@
         <v>3</v>
       </c>
       <c r="L41">
-        <v>5.3326489494018602E-2</v>
+        <v>5.3386482471599238E-2</v>
       </c>
       <c r="M41">
         <v>0.99639999999999995</v>
@@ -6432,27 +6429,27 @@
       </c>
       <c r="AD41">
         <f t="shared" si="30"/>
-        <v>0.6431961249321223</v>
+        <v>0.64354787159530746</v>
       </c>
       <c r="AE41">
         <f t="shared" si="19"/>
-        <v>-1.3611042105343696E-4</v>
+        <v>-4.8644696256761044E-5</v>
       </c>
       <c r="AF41">
         <f t="shared" si="20"/>
-        <v>1.2862561394431911</v>
+        <v>1.2870470984943583</v>
       </c>
       <c r="AG41">
         <f t="shared" si="21"/>
-        <v>7.6579029827127165E-2</v>
+        <v>7.654018683046937E-2</v>
       </c>
       <c r="AH41">
         <f t="shared" si="28"/>
-        <v>1.0900475757993144</v>
+        <v>1.0907178800799646</v>
       </c>
       <c r="AI41">
         <f t="shared" si="22"/>
-        <v>8.4810328744063357E-2</v>
+        <v>8.4788400372473038E-2</v>
       </c>
       <c r="AJ41">
         <f t="shared" si="29"/>
@@ -6494,7 +6491,7 @@
         <v>3</v>
       </c>
       <c r="L42">
-        <v>5.3303284686954298E-2</v>
+        <v>5.3378183579467227E-2</v>
       </c>
       <c r="M42">
         <v>0.99639999999999995</v>
@@ -6565,27 +6562,27 @@
       </c>
       <c r="AD42">
         <f t="shared" si="30"/>
-        <v>0.64306001451106887</v>
+        <v>0.6434992268990507</v>
       </c>
       <c r="AE42">
         <f t="shared" si="19"/>
-        <v>7.671514024818038E-2</v>
+        <v>7.6588831526726131E-2</v>
       </c>
       <c r="AF42">
         <f t="shared" si="20"/>
-        <v>1.3628351692703182</v>
+        <v>1.3635872853248276</v>
       </c>
       <c r="AG42">
         <f t="shared" si="21"/>
-        <v>0.12826829394482386</v>
+        <v>0.12813982551280212</v>
       </c>
       <c r="AH42">
         <f t="shared" si="28"/>
-        <v>1.1748579045433778</v>
+        <v>1.1755062804524377</v>
       </c>
       <c r="AI42">
         <f t="shared" si="22"/>
-        <v>0.15648447332728477</v>
+        <v>0.15639292565258889</v>
       </c>
       <c r="AJ42">
         <f t="shared" si="29"/>
@@ -6627,7 +6624,7 @@
         <v>3</v>
       </c>
       <c r="L43">
-        <v>6.7263900363447995E-2</v>
+        <v>6.7324514892278128E-2</v>
       </c>
       <c r="M43">
         <v>0.99639999999999995</v>
@@ -6698,27 +6695,27 @@
       </c>
       <c r="AD43">
         <f t="shared" si="30"/>
-        <v>0.71977515475924925</v>
+        <v>0.72008805842577683</v>
       </c>
       <c r="AE43">
         <f t="shared" si="19"/>
-        <v>5.1553153696643705E-2</v>
+        <v>5.1550993986075988E-2</v>
       </c>
       <c r="AF43">
         <f t="shared" si="20"/>
-        <v>1.4911034632151421</v>
+        <v>1.4917271108376298</v>
       </c>
       <c r="AG43">
         <f t="shared" si="21"/>
-        <v>8.2789859166767066E-2</v>
+        <v>8.2674354979952014E-2</v>
       </c>
       <c r="AH43">
         <f t="shared" si="28"/>
-        <v>1.3313423778706626</v>
+        <v>1.3318992061050265</v>
       </c>
       <c r="AI43">
         <f t="shared" si="22"/>
-        <v>7.3919517113184785E-2</v>
+        <v>7.3816388374956965E-2</v>
       </c>
       <c r="AJ43">
         <f t="shared" si="29"/>
@@ -6760,7 +6757,7 @@
         <v>3</v>
       </c>
       <c r="L44">
-        <v>7.7663846284667701E-2</v>
+        <v>7.7729083295745974E-2</v>
       </c>
       <c r="M44">
         <v>0.99639999999999995</v>
@@ -6831,27 +6828,27 @@
       </c>
       <c r="AD44">
         <f t="shared" si="30"/>
-        <v>0.77132830845589295</v>
+        <v>0.77163905241185282</v>
       </c>
       <c r="AE44">
         <f t="shared" si="19"/>
-        <v>3.1236705470123249E-2</v>
+        <v>3.1123360993876137E-2</v>
       </c>
       <c r="AF44">
         <f t="shared" si="20"/>
-        <v>1.5738933223819092</v>
+        <v>1.5744014658175818</v>
       </c>
       <c r="AG44">
         <f t="shared" si="21"/>
-        <v>6.1290133813061365E-2</v>
+        <v>6.1177569848667179E-2</v>
       </c>
       <c r="AH44">
         <f t="shared" si="28"/>
-        <v>1.4052618949838473</v>
+        <v>1.4057155944799835</v>
       </c>
       <c r="AI44">
         <f t="shared" si="22"/>
-        <v>5.4723333761661941E-2</v>
+        <v>5.462283022202441E-2</v>
       </c>
       <c r="AJ44">
         <f t="shared" si="29"/>
@@ -6893,7 +6890,7 @@
         <v>3</v>
       </c>
       <c r="L45">
-        <v>8.4377352471177197E-2</v>
+        <v>8.442078592450783E-2</v>
       </c>
       <c r="M45">
         <v>0.99639999999999995</v>
@@ -6964,27 +6961,27 @@
       </c>
       <c r="AD45">
         <f t="shared" si="30"/>
-        <v>0.8025650139260162</v>
+        <v>0.80276241340572896</v>
       </c>
       <c r="AE45">
         <f t="shared" si="19"/>
-        <v>3.0053428342938115E-2</v>
+        <v>3.0054208854791042E-2</v>
       </c>
       <c r="AF45">
         <f t="shared" si="20"/>
-        <v>1.6351834561949705</v>
+        <v>1.635579035666249</v>
       </c>
       <c r="AG45">
         <f t="shared" si="21"/>
-        <v>-0.13550700927469284</v>
+        <v>-0.1354157990206013</v>
       </c>
       <c r="AH45">
         <f t="shared" si="28"/>
-        <v>1.4599852287455093</v>
+        <v>1.4603384247020079</v>
       </c>
       <c r="AI45">
         <f t="shared" si="22"/>
-        <v>-0.1209884011381186</v>
+        <v>-0.12090696341125118</v>
       </c>
       <c r="AJ45">
         <f t="shared" si="29"/>
@@ -7026,7 +7023,7 @@
         <v>3</v>
       </c>
       <c r="L46">
-        <v>9.1137832228472604E-2</v>
+        <v>9.1183408005772029E-2</v>
       </c>
       <c r="M46">
         <v>0.99639999999999995</v>
@@ -7097,27 +7094,27 @@
       </c>
       <c r="AD46">
         <f t="shared" si="30"/>
-        <v>0.83261844226895432</v>
+        <v>0.83281662226052</v>
       </c>
       <c r="AE46">
         <f t="shared" si="19"/>
-        <v>-0.16556043761763095</v>
+        <v>-0.16547000787539234</v>
       </c>
       <c r="AF46">
         <f t="shared" si="20"/>
-        <v>1.4996764469202777</v>
+        <v>1.5001632366456477</v>
       </c>
       <c r="AG46">
         <f t="shared" si="21"/>
-        <v>-3.0807979217920778E-2</v>
+        <v>-3.0837591301798861E-2</v>
       </c>
       <c r="AH46">
         <f t="shared" si="28"/>
-        <v>1.3389968276073907</v>
+        <v>1.3394314612907567</v>
       </c>
       <c r="AI46">
         <f t="shared" si="22"/>
-        <v>-3.661856968884436E-3</v>
+        <v>-3.6808746145307047E-3</v>
       </c>
       <c r="AJ46">
         <f t="shared" si="29"/>
@@ -7159,7 +7156,7 @@
         <v>3</v>
       </c>
       <c r="L47">
-        <v>5.7479681438489298E-2</v>
+        <v>5.7530954782735989E-2</v>
       </c>
       <c r="M47">
         <v>0.99639999999999995</v>
@@ -7230,27 +7227,27 @@
       </c>
       <c r="AD47">
         <f t="shared" si="30"/>
-        <v>0.66705800465132337</v>
+        <v>0.66734661438512766</v>
       </c>
       <c r="AE47">
         <f t="shared" si="19"/>
-        <v>0.13475245839971028</v>
+        <v>0.13463241657359348</v>
       </c>
       <c r="AF47">
         <f t="shared" si="20"/>
-        <v>1.4688684677023569</v>
-      </c>
-      <c r="AG47" s="3">
+        <v>1.4693256453438488</v>
+      </c>
+      <c r="AG47">
         <f t="shared" si="21"/>
-        <v>7.4412020576670734E-3</v>
+        <v>7.5846440371485357E-3</v>
       </c>
       <c r="AH47">
         <f t="shared" si="28"/>
-        <v>1.3353349706385063</v>
-      </c>
-      <c r="AI47" s="3">
+        <v>1.335750586676226</v>
+      </c>
+      <c r="AI47">
         <f t="shared" si="22"/>
-        <v>6.7647291433337031E-3</v>
+        <v>6.8951309428624263E-3</v>
       </c>
       <c r="AJ47">
         <f t="shared" si="29"/>
@@ -7292,7 +7289,7 @@
         <v>2</v>
       </c>
       <c r="L48">
-        <v>8.4211447487159197E-2</v>
+        <v>8.4248494779717173E-2</v>
       </c>
       <c r="M48">
         <v>0.99639999999999995</v>
@@ -7363,27 +7360,27 @@
       </c>
       <c r="AD48">
         <f t="shared" si="30"/>
-        <v>0.80181046305103365</v>
-      </c>
-      <c r="AE48" s="3">
+        <v>0.80197903095872114</v>
+      </c>
+      <c r="AE48">
         <f t="shared" si="19"/>
-        <v>-0.12731125634204343</v>
+        <v>-0.12704777253644495</v>
       </c>
       <c r="AF48">
         <f t="shared" si="20"/>
-        <v>1.476309669760024</v>
+        <v>1.4769102893809973</v>
       </c>
       <c r="AG48" s="1">
         <f t="shared" si="21"/>
-        <v>-1.476309669760024</v>
-      </c>
-      <c r="AH48" s="3">
+        <v>-1.4769102893809973</v>
+      </c>
+      <c r="AH48">
         <f t="shared" si="28"/>
-        <v>1.34209969978184</v>
+        <v>1.3426457176190885</v>
       </c>
       <c r="AI48" s="1">
         <f t="shared" si="22"/>
-        <v>-1.34209969978184</v>
+        <v>-1.3426457176190885</v>
       </c>
       <c r="AJ48">
         <f t="shared" si="29"/>
@@ -7423,7 +7420,7 @@
         <v>1</v>
       </c>
       <c r="L49">
-        <v>5.8809649667171698E-2</v>
+        <v>5.8887381897645787E-2</v>
       </c>
       <c r="M49">
         <v>0.99639999999999995</v>
@@ -7494,11 +7491,11 @@
       </c>
       <c r="AD49">
         <f t="shared" si="30"/>
-        <v>0.67449920670899022</v>
+        <v>0.67493125842227619</v>
       </c>
       <c r="AE49" s="1">
         <f t="shared" si="19"/>
-        <v>-0.67449920670899022</v>
+        <v>-0.67493125842227619</v>
       </c>
       <c r="AF49" s="1"/>
       <c r="AG49" s="1">
@@ -7618,12 +7615,12 @@
       <c r="AD50" s="1"/>
       <c r="AE50" s="1">
         <f t="shared" si="19"/>
-        <v>0.53725844357766339</v>
+        <v>0.53712868520885104</v>
       </c>
       <c r="AF50" s="1"/>
       <c r="AG50" s="1">
         <f t="shared" si="21"/>
-        <v>0.95906776763466572</v>
+        <v>0.95896591575796242</v>
       </c>
       <c r="AH50" s="1">
         <f t="shared" si="28"/>
@@ -7631,7 +7628,7 @@
       </c>
       <c r="AI50" s="1">
         <f t="shared" si="22"/>
-        <v>0.65689573125662037</v>
+        <v>0.6568259696972345</v>
       </c>
       <c r="AJ50" s="1">
         <f t="shared" si="29"/>
@@ -7673,7 +7670,7 @@
         <v>3</v>
       </c>
       <c r="L51">
-        <v>3.6894241183969403E-2</v>
+        <v>3.6876079567865733E-2</v>
       </c>
       <c r="M51">
         <v>0.99639999999999995</v>
@@ -7744,27 +7741,27 @@
       </c>
       <c r="AD51">
         <f t="shared" ref="AD51:AD79" si="31">2*SQRT(2 * M51 * L51 - L51 * L51)</f>
-        <v>0.53725844357766339</v>
+        <v>0.53712868520885104</v>
       </c>
       <c r="AE51">
         <f t="shared" si="19"/>
-        <v>-0.11544911952066111</v>
+        <v>-0.11529145465973972</v>
       </c>
       <c r="AF51">
         <f t="shared" si="20"/>
-        <v>0.95906776763466572</v>
+        <v>0.95896591575796242</v>
       </c>
       <c r="AG51">
         <f t="shared" si="21"/>
-        <v>0.11743921237271282</v>
+        <v>0.11800099454201729</v>
       </c>
       <c r="AH51">
         <f t="shared" si="28"/>
-        <v>0.65689573125662037</v>
+        <v>0.6568259696972345</v>
       </c>
       <c r="AI51">
         <f t="shared" si="22"/>
-        <v>0.24019341874952849</v>
+        <v>0.24064645555274866</v>
       </c>
       <c r="AJ51">
         <f t="shared" si="29"/>
@@ -7806,7 +7803,7 @@
         <v>3</v>
       </c>
       <c r="L52">
-        <v>2.25765131531055E-2</v>
+        <v>2.2579535165406391E-2</v>
       </c>
       <c r="M52">
         <v>0.99639999999999995</v>
@@ -7877,27 +7874,27 @@
       </c>
       <c r="AD52">
         <f t="shared" si="31"/>
-        <v>0.42180932405700228</v>
+        <v>0.42183723054911132</v>
       </c>
       <c r="AE52">
         <f t="shared" si="19"/>
-        <v>0.23288833189337393</v>
+        <v>0.23329244920175712</v>
       </c>
       <c r="AF52">
         <f t="shared" si="20"/>
-        <v>1.0765069800073785</v>
+        <v>1.0769669102999797</v>
       </c>
       <c r="AG52">
         <f t="shared" si="21"/>
-        <v>0.28852898056457055</v>
+        <v>0.28896638173014177</v>
       </c>
       <c r="AH52">
         <f t="shared" si="28"/>
-        <v>0.89708915000614886</v>
+        <v>0.89747242524998316</v>
       </c>
       <c r="AI52">
         <f t="shared" si="22"/>
-        <v>0.27966598841794532</v>
+        <v>0.28005627477598372</v>
       </c>
       <c r="AJ52">
         <f t="shared" si="29"/>
@@ -7939,7 +7936,7 @@
         <v>3</v>
       </c>
       <c r="L53">
-        <v>5.5307175235476201E-2</v>
+        <v>5.5382340400892821E-2</v>
       </c>
       <c r="M53">
         <v>0.99639999999999995</v>
@@ -8010,27 +8007,27 @@
       </c>
       <c r="AD53">
         <f t="shared" si="31"/>
-        <v>0.65469765595037621</v>
+        <v>0.65512967975086844</v>
       </c>
       <c r="AE53">
         <f t="shared" si="19"/>
-        <v>5.5640648671196669E-2</v>
+        <v>5.5673932528384484E-2</v>
       </c>
       <c r="AF53">
         <f t="shared" si="20"/>
-        <v>1.3650359605719491</v>
+        <v>1.3659332920301215</v>
       </c>
       <c r="AG53">
         <f t="shared" si="21"/>
-        <v>6.5430272339860762E-2</v>
+        <v>6.5346841439643644E-2</v>
       </c>
       <c r="AH53">
         <f t="shared" si="28"/>
-        <v>1.1767551384240942</v>
+        <v>1.1775287000259669</v>
       </c>
       <c r="AI53">
         <f t="shared" si="22"/>
-        <v>7.8039802726616259E-2</v>
+        <v>7.7980188982599064E-2</v>
       </c>
       <c r="AJ53">
         <f t="shared" si="29"/>
@@ -8072,7 +8069,7 @@
         <v>3</v>
       </c>
       <c r="L54">
-        <v>6.5450037194889094E-2</v>
+        <v>6.5538830870740777E-2</v>
       </c>
       <c r="M54">
         <v>0.99639999999999995</v>
@@ -8143,27 +8140,27 @@
       </c>
       <c r="AD54">
         <f t="shared" si="31"/>
-        <v>0.71033830462157288</v>
+        <v>0.71080361227925293</v>
       </c>
       <c r="AE54">
         <f t="shared" si="19"/>
-        <v>9.7896236686642046E-3</v>
+        <v>9.6729089112591593E-3</v>
       </c>
       <c r="AF54">
         <f t="shared" si="20"/>
-        <v>1.4304662329118099</v>
+        <v>1.4312801334697651</v>
       </c>
       <c r="AG54">
         <f t="shared" si="21"/>
-        <v>6.3072022246481119E-2</v>
+        <v>6.2897715268602994E-2</v>
       </c>
       <c r="AH54">
         <f t="shared" si="28"/>
-        <v>1.2547949411507104</v>
+        <v>1.2555088890085659</v>
       </c>
       <c r="AI54">
         <f t="shared" si="22"/>
-        <v>7.8721358097763483E-2</v>
+        <v>7.8578475936405434E-2</v>
       </c>
       <c r="AJ54">
         <f t="shared" si="29"/>
@@ -8205,7 +8202,7 @@
         <v>3</v>
       </c>
       <c r="L55">
-        <v>6.7332240509820104E-2</v>
+        <v>6.7399808609651363E-2</v>
       </c>
       <c r="M55">
         <v>0.99639999999999995</v>
@@ -8276,27 +8273,27 @@
       </c>
       <c r="AD55">
         <f t="shared" si="31"/>
-        <v>0.72012792829023708</v>
+        <v>0.72047652119051209</v>
       </c>
       <c r="AE55">
         <f t="shared" si="19"/>
-        <v>5.3282398577816914E-2</v>
+        <v>5.3224806357343835E-2</v>
       </c>
       <c r="AF55">
         <f t="shared" si="20"/>
-        <v>1.493538255158291</v>
+        <v>1.4941778487383681</v>
       </c>
       <c r="AG55">
         <f t="shared" si="21"/>
-        <v>-4.6480777110955218E-2</v>
+        <v>-4.6298160376859965E-2</v>
       </c>
       <c r="AH55">
         <f t="shared" si="28"/>
-        <v>1.3335162992484739</v>
+        <v>1.3340873649449714</v>
       </c>
       <c r="AI55">
         <f t="shared" si="22"/>
-        <v>-6.4167634294670428E-2</v>
+        <v>-6.4017462873472875E-2</v>
       </c>
       <c r="AJ55">
         <f t="shared" si="29"/>
@@ -8338,7 +8335,7 @@
         <v>3</v>
       </c>
       <c r="L56">
-        <v>7.8101531868062804E-2</v>
+        <v>7.8162817166680332E-2</v>
       </c>
       <c r="M56">
         <v>0.99639999999999995</v>
@@ -8409,27 +8406,27 @@
       </c>
       <c r="AD56">
         <f t="shared" si="31"/>
-        <v>0.773410326868054</v>
+        <v>0.77370132754785592</v>
       </c>
       <c r="AE56">
         <f t="shared" si="19"/>
-        <v>-9.9763175688772243E-2</v>
+        <v>-9.9522966734203688E-2</v>
       </c>
       <c r="AF56">
         <f t="shared" si="20"/>
-        <v>1.4470574780473358</v>
+        <v>1.4478796883615082</v>
       </c>
       <c r="AG56">
         <f t="shared" si="21"/>
-        <v>-3.8230947812683214E-2</v>
+        <v>-3.8312200842813837E-2</v>
       </c>
       <c r="AH56">
         <f t="shared" si="28"/>
-        <v>1.2693486649538035</v>
+        <v>1.2700699020714985</v>
       </c>
       <c r="AI56">
         <f t="shared" si="22"/>
-        <v>-1.1467834387149489E-2</v>
+        <v>-1.1527502501235798E-2</v>
       </c>
       <c r="AJ56">
         <f t="shared" si="29"/>
@@ -8471,7 +8468,7 @@
         <v>3</v>
       </c>
       <c r="L57">
-        <v>5.8656517523576999E-2</v>
+        <v>5.8751961313492522E-2</v>
       </c>
       <c r="M57">
         <v>0.99639999999999995</v>
@@ -8542,27 +8539,27 @@
       </c>
       <c r="AD57">
         <f t="shared" si="31"/>
-        <v>0.67364715117928176</v>
+        <v>0.67417836081365223</v>
       </c>
       <c r="AE57">
         <f t="shared" si="19"/>
-        <v>6.153222787608903E-2</v>
+        <v>6.121076589138974E-2</v>
       </c>
       <c r="AF57">
         <f t="shared" si="20"/>
-        <v>1.4088265302346525</v>
+        <v>1.4095674875186943</v>
       </c>
       <c r="AG57">
         <f t="shared" si="21"/>
-        <v>-3.974786630271665E-2</v>
+        <v>-3.9871381443684406E-2</v>
       </c>
       <c r="AH57">
         <f t="shared" si="28"/>
-        <v>1.257880830566654</v>
+        <v>1.2585423995702627</v>
       </c>
       <c r="AI57">
         <f t="shared" si="22"/>
-        <v>-1.3263863355803318E-2</v>
+        <v>-1.3364121320253775E-2</v>
       </c>
       <c r="AJ57">
         <f t="shared" si="29"/>
@@ -8604,7 +8601,7 @@
         <v>3</v>
       </c>
       <c r="L58">
-        <v>7.0284035256415703E-2</v>
+        <v>7.0325668166426866E-2</v>
       </c>
       <c r="M58">
         <v>0.99639999999999995</v>
@@ -8675,27 +8672,27 @@
       </c>
       <c r="AD58">
         <f t="shared" si="31"/>
-        <v>0.73517937905537079</v>
+        <v>0.73538912670504197</v>
       </c>
       <c r="AE58">
         <f t="shared" si="19"/>
-        <v>-0.10128009417880568</v>
+        <v>-0.10108214733507404</v>
       </c>
       <c r="AF58">
         <f t="shared" si="20"/>
-        <v>1.3690786639319359</v>
+        <v>1.3696961060750099</v>
       </c>
       <c r="AG58">
         <f t="shared" si="21"/>
-        <v>-1.5459560690108898E-2</v>
+        <v>-1.5403068557300781E-2</v>
       </c>
       <c r="AH58">
         <f t="shared" si="28"/>
-        <v>1.2446169672108507</v>
+        <v>1.2451782782500089</v>
       </c>
       <c r="AI58">
         <f t="shared" si="22"/>
-        <v>-3.6028482173505294E-2</v>
+        <v>-3.5988066180625999E-2</v>
       </c>
       <c r="AJ58">
         <f t="shared" si="29"/>
@@ -8737,7 +8734,7 @@
         <v>3</v>
       </c>
       <c r="L59">
-        <v>5.17540958865884E-2</v>
+        <v>5.1822515629005278E-2</v>
       </c>
       <c r="M59">
         <v>0.99639999999999995</v>
@@ -8808,27 +8805,27 @@
       </c>
       <c r="AD59">
         <f t="shared" si="31"/>
-        <v>0.63389928487656511</v>
+        <v>0.63430697936996794</v>
       </c>
       <c r="AE59">
         <f t="shared" si="19"/>
-        <v>8.5820533488696782E-2</v>
+        <v>8.5679078777773365E-2</v>
       </c>
       <c r="AF59">
         <f t="shared" si="20"/>
-        <v>1.353619103241827</v>
+        <v>1.3542930375177091</v>
       </c>
       <c r="AG59">
         <f t="shared" si="21"/>
-        <v>-3.4868053621425643E-2</v>
+        <v>-3.4709918016546215E-2</v>
       </c>
       <c r="AH59">
         <f t="shared" si="28"/>
-        <v>1.2085884850373454</v>
+        <v>1.2091902120693829</v>
       </c>
       <c r="AI59">
         <f t="shared" si="22"/>
-        <v>-5.1789318703659992E-2</v>
+        <v>-5.1661159875380225E-2</v>
       </c>
       <c r="AJ59">
         <f t="shared" si="29"/>
@@ -8870,7 +8867,7 @@
         <v>3</v>
       </c>
       <c r="L60">
-        <v>6.7253183956879403E-2</v>
+        <v>6.7304752450956018E-2</v>
       </c>
       <c r="M60">
         <v>0.99639999999999995</v>
@@ -8941,27 +8938,27 @@
       </c>
       <c r="AD60">
         <f t="shared" si="31"/>
-        <v>0.71971981836526189</v>
+        <v>0.7199860581477413</v>
       </c>
       <c r="AE60">
         <f t="shared" si="19"/>
-        <v>-0.12068858711012231</v>
+        <v>-0.1203889967943198</v>
       </c>
       <c r="AF60">
         <f t="shared" si="20"/>
-        <v>1.3187510496204013</v>
+        <v>1.3195831195011629</v>
       </c>
       <c r="AG60">
         <f t="shared" si="21"/>
-        <v>3.5260984553586505E-2</v>
+        <v>3.5337525150072935E-2</v>
       </c>
       <c r="AH60">
         <f t="shared" si="28"/>
-        <v>1.1567991663336854</v>
+        <v>1.1575290521940027</v>
       </c>
       <c r="AI60">
         <f t="shared" si="22"/>
-        <v>5.2140149893089349E-2</v>
+        <v>5.2221523387457669E-2</v>
       </c>
       <c r="AJ60">
         <f t="shared" si="29"/>
@@ -9003,7 +9000,7 @@
         <v>3</v>
       </c>
       <c r="L61">
-        <v>4.6082497269866199E-2</v>
+        <v>4.6171711111437537E-2</v>
       </c>
       <c r="M61">
         <v>0.99639999999999995</v>
@@ -9074,27 +9071,27 @@
       </c>
       <c r="AD61">
         <f t="shared" si="31"/>
-        <v>0.59903123125513957</v>
+        <v>0.5995970613534215</v>
       </c>
       <c r="AE61">
         <f t="shared" si="19"/>
-        <v>0.15594957166370871</v>
+        <v>0.15572652194439285</v>
       </c>
       <c r="AF61">
         <f t="shared" si="20"/>
-        <v>1.3540120341739879</v>
+        <v>1.3549206446512359</v>
       </c>
       <c r="AG61">
         <f t="shared" si="21"/>
-        <v>8.8631373988639295E-2</v>
+        <v>8.8646361928597095E-2</v>
       </c>
       <c r="AH61">
         <f t="shared" si="28"/>
-        <v>1.2089393162267748</v>
+        <v>1.2097505755814604</v>
       </c>
       <c r="AI61">
         <f t="shared" si="22"/>
-        <v>0.10255469119379534</v>
+        <v>0.1025830667638421</v>
       </c>
       <c r="AJ61">
         <f t="shared" si="29"/>
@@ -9136,7 +9133,7 @@
         <v>3</v>
       </c>
       <c r="L62">
-        <v>7.4275303006148305E-2</v>
+        <v>7.4345483646147181E-2</v>
       </c>
       <c r="M62">
         <v>0.99639999999999995</v>
@@ -9207,27 +9204,27 @@
       </c>
       <c r="AD62">
         <f t="shared" si="31"/>
-        <v>0.75498080291884828</v>
+        <v>0.75532358329781435</v>
       </c>
       <c r="AE62">
         <f t="shared" si="19"/>
-        <v>-6.7318197675069413E-2</v>
+        <v>-6.7080160015795753E-2</v>
       </c>
       <c r="AF62">
         <f t="shared" si="20"/>
-        <v>1.4426434081626271</v>
+        <v>1.4435670065798329</v>
       </c>
       <c r="AG62">
         <f t="shared" si="21"/>
-        <v>9.0601307890461946E-2</v>
+        <v>9.0563407057696832E-2</v>
       </c>
       <c r="AH62">
         <f t="shared" si="28"/>
-        <v>1.3114940074205701</v>
+        <v>1.3123336423453025</v>
       </c>
       <c r="AI62">
         <f t="shared" si="22"/>
-        <v>3.3457497889157306E-2</v>
+        <v>3.339479067007467E-2</v>
       </c>
       <c r="AJ62">
         <f t="shared" si="29"/>
@@ -9269,7 +9266,7 @@
         <v>3</v>
       </c>
       <c r="L63">
-        <v>6.1203231754228801E-2</v>
+        <v>6.1310053750302559E-2</v>
       </c>
       <c r="M63">
         <v>0.99639999999999995</v>
@@ -9340,27 +9337,27 @@
       </c>
       <c r="AD63">
         <f t="shared" si="31"/>
-        <v>0.68766260524377887</v>
+        <v>0.6882434232820186</v>
       </c>
       <c r="AE63">
         <f t="shared" si="19"/>
-        <v>0.15791950556553147</v>
+        <v>0.15764356707349247</v>
       </c>
       <c r="AF63">
         <f t="shared" si="20"/>
-        <v>1.5332447160530891</v>
+        <v>1.5341304136375298</v>
       </c>
       <c r="AG63">
         <f t="shared" si="21"/>
-        <v>7.9930632088230702E-2</v>
+        <v>7.9586136227986159E-2</v>
       </c>
       <c r="AH63">
         <f t="shared" si="28"/>
-        <v>1.3449515053097274</v>
+        <v>1.3457284330153771</v>
       </c>
       <c r="AI63">
         <f t="shared" si="22"/>
-        <v>9.5383626959308021E-2</v>
+        <v>9.5089915078833354E-2</v>
       </c>
       <c r="AJ63">
         <f t="shared" si="29"/>
@@ -9402,7 +9399,7 @@
         <v>3</v>
       </c>
       <c r="L64">
-        <v>9.41468850318012E-2</v>
+        <v>9.421833321285901E-2</v>
       </c>
       <c r="M64">
         <v>0.99639999999999995</v>
@@ -9473,27 +9470,27 @@
       </c>
       <c r="AD64">
         <f t="shared" si="31"/>
-        <v>0.84558211080931034</v>
+        <v>0.84588699035551107</v>
       </c>
       <c r="AE64">
         <f t="shared" si="19"/>
-        <v>-7.7988873477300991E-2</v>
+        <v>-7.8057430845506093E-2</v>
       </c>
       <c r="AF64">
         <f t="shared" si="20"/>
-        <v>1.6131753481413198</v>
+        <v>1.6137165498655159</v>
       </c>
       <c r="AG64">
         <f t="shared" si="21"/>
-        <v>-9.8582632885357624E-2</v>
+        <v>-9.8445147492150831E-2</v>
       </c>
       <c r="AH64">
         <f t="shared" si="28"/>
-        <v>1.4403351322690354</v>
+        <v>1.4408183480942105</v>
       </c>
       <c r="AI64">
         <f t="shared" si="22"/>
-        <v>-8.8020207933354966E-2</v>
+        <v>-8.7897453117991686E-2</v>
       </c>
       <c r="AJ64">
         <f t="shared" si="29"/>
@@ -9535,7 +9532,7 @@
         <v>3</v>
       </c>
       <c r="L65">
-        <v>7.68821287758778E-2</v>
+        <v>7.6931456826462227E-2</v>
       </c>
       <c r="M65">
         <v>0.99639999999999995</v>
@@ -9606,27 +9603,27 @@
       </c>
       <c r="AD65">
         <f t="shared" si="31"/>
-        <v>0.76759323733200935</v>
+        <v>0.76782955951000498</v>
       </c>
       <c r="AE65">
         <f t="shared" si="19"/>
-        <v>-2.0593759408056522E-2</v>
+        <v>-2.0387716646644738E-2</v>
       </c>
       <c r="AF65">
         <f t="shared" si="20"/>
-        <v>1.5145927152559622</v>
+        <v>1.5152714023733651</v>
       </c>
       <c r="AG65">
         <f t="shared" si="21"/>
-        <v>1.6732151003662432E-2</v>
+        <v>1.672178387213874E-2</v>
       </c>
       <c r="AH65">
         <f t="shared" si="28"/>
-        <v>1.3523149243356805</v>
+        <v>1.3529208949762188</v>
       </c>
       <c r="AI65">
         <f t="shared" si="22"/>
-        <v>-9.0474977921499722E-3</v>
+        <v>-9.0672228310397784E-3</v>
       </c>
       <c r="AJ65">
         <f t="shared" si="29"/>
@@ -9668,7 +9665,7 @@
         <v>3</v>
       </c>
       <c r="L66">
-        <v>7.2651709070411602E-2</v>
+        <v>7.2741170732257887E-2</v>
       </c>
       <c r="M66">
         <v>0.99639999999999995</v>
@@ -9739,27 +9736,27 @@
       </c>
       <c r="AD66">
         <f t="shared" si="31"/>
-        <v>0.74699947792395283</v>
+        <v>0.74744184286336024</v>
       </c>
       <c r="AE66">
         <f t="shared" si="19"/>
-        <v>3.7325910411718954E-2</v>
+        <v>3.7109500518783478E-2</v>
       </c>
       <c r="AF66">
         <f t="shared" si="20"/>
-        <v>1.5313248662596246</v>
+        <v>1.5319931862455038</v>
       </c>
       <c r="AG66">
         <f t="shared" si="21"/>
-        <v>5.2094653455983853E-2</v>
+        <v>5.2003443031924945E-2</v>
       </c>
       <c r="AH66">
         <f t="shared" ref="AH66:AH78" si="37">AF66/P66</f>
-        <v>1.3432674265435305</v>
+        <v>1.343853672145179</v>
       </c>
       <c r="AI66">
         <f t="shared" si="22"/>
-        <v>7.0500001773976972E-2</v>
+        <v>7.0429032566810879E-2</v>
       </c>
       <c r="AJ66">
         <f t="shared" ref="AJ66:AJ80" si="38">60 / N66</f>
@@ -9801,7 +9798,7 @@
         <v>3</v>
       </c>
       <c r="L67">
-        <v>8.0418896863573702E-2</v>
+        <v>8.046727463240054E-2</v>
       </c>
       <c r="M67">
         <v>0.99639999999999995</v>
@@ -9872,27 +9869,27 @@
       </c>
       <c r="AD67">
         <f t="shared" si="31"/>
-        <v>0.78432538833567178</v>
+        <v>0.78455134338214372</v>
       </c>
       <c r="AE67">
         <f t="shared" ref="AE67:AE78" si="50">AD68-AD67</f>
-        <v>1.4768743044264898E-2</v>
+        <v>1.4893942513141245E-2</v>
       </c>
       <c r="AF67">
         <f t="shared" ref="AF67:AF78" si="51">AD67+AD68</f>
-        <v>1.5834195197156085</v>
+        <v>1.5839966292774288</v>
       </c>
       <c r="AG67">
         <f t="shared" ref="AG67:AG77" si="52">AF68-AF67</f>
-        <v>-6.4847332389724288E-2</v>
+        <v>-6.4590812942817655E-2</v>
       </c>
       <c r="AH67">
         <f t="shared" si="37"/>
-        <v>1.4137674283175075</v>
+        <v>1.4142827047119899</v>
       </c>
       <c r="AI67">
         <f t="shared" ref="AI67:AI77" si="53">AH68-AH67</f>
-        <v>-5.7899403919396741E-2</v>
+        <v>-5.7670368698944374E-2</v>
       </c>
       <c r="AJ67">
         <f t="shared" si="38"/>
@@ -9934,7 +9931,7 @@
         <v>3</v>
       </c>
       <c r="L68">
-        <v>8.3615741646178396E-2</v>
+        <v>8.369261605104153E-2</v>
       </c>
       <c r="M68">
         <v>0.99639999999999995</v>
@@ -10005,27 +10002,27 @@
       </c>
       <c r="AD68">
         <f t="shared" si="31"/>
-        <v>0.79909413137993668</v>
+        <v>0.79944528589528496</v>
       </c>
       <c r="AE68">
         <f t="shared" si="50"/>
-        <v>-7.9616075433989186E-2</v>
+        <v>-7.9484755455958789E-2</v>
       </c>
       <c r="AF68">
         <f t="shared" si="51"/>
-        <v>1.5185721873258842</v>
+        <v>1.5194058163346111</v>
       </c>
       <c r="AG68">
         <f t="shared" si="52"/>
-        <v>-2.4163798328571406E-3</v>
+        <v>-2.3913449124022268E-3</v>
       </c>
       <c r="AH68">
         <f t="shared" si="37"/>
-        <v>1.3558680243981107</v>
+        <v>1.3566123360130455</v>
       </c>
       <c r="AI68">
         <f t="shared" si="53"/>
-        <v>-2.5906789755104409E-2</v>
+        <v>-2.5897887397072772E-2</v>
       </c>
       <c r="AJ68">
         <f t="shared" si="38"/>
@@ -10067,7 +10064,7 @@
         <v>3</v>
       </c>
       <c r="L69">
-        <v>6.7206375531418103E-2</v>
+        <v>6.7299806989374808E-2</v>
       </c>
       <c r="M69">
         <v>0.99639999999999995</v>
@@ -10138,27 +10135,27 @@
       </c>
       <c r="AD69">
         <f t="shared" si="31"/>
-        <v>0.71947805594594749</v>
+        <v>0.71996053043932617</v>
       </c>
       <c r="AE69">
         <f t="shared" si="50"/>
-        <v>7.7199695601132046E-2</v>
+        <v>7.7093410543556451E-2</v>
       </c>
       <c r="AF69">
         <f t="shared" si="51"/>
-        <v>1.516155807493027</v>
+        <v>1.5170144714222089</v>
       </c>
       <c r="AG69">
         <f t="shared" si="52"/>
-        <v>7.2361795906098259E-2</v>
+        <v>7.2255956192031956E-2</v>
       </c>
       <c r="AH69">
         <f t="shared" si="37"/>
-        <v>1.3299612346430063</v>
+        <v>1.3307144486159728</v>
       </c>
       <c r="AI69">
         <f t="shared" si="53"/>
-        <v>6.3475259566752928E-2</v>
+        <v>6.3382417712308792E-2</v>
       </c>
       <c r="AJ69">
         <f t="shared" si="38"/>
@@ -10200,7 +10197,7 @@
         <v>3</v>
       </c>
       <c r="L70">
-        <v>8.3087840852059794E-2</v>
+        <v>8.3169900960927662E-2</v>
       </c>
       <c r="M70">
         <v>0.99639999999999995</v>
@@ -10271,27 +10268,27 @@
       </c>
       <c r="AD70">
         <f t="shared" si="31"/>
-        <v>0.79667775154707954</v>
+        <v>0.79705394098288262</v>
       </c>
       <c r="AE70">
         <f t="shared" si="50"/>
-        <v>-4.8378996950337871E-3</v>
+        <v>-4.837454351524384E-3</v>
       </c>
       <c r="AF70">
         <f t="shared" si="51"/>
-        <v>1.5885176033991253</v>
+        <v>1.5892704276142409</v>
       </c>
       <c r="AG70">
         <f t="shared" si="52"/>
-        <v>-3.1758814584396777E-2</v>
+        <v>-3.1693667305811024E-2</v>
       </c>
       <c r="AH70">
         <f t="shared" si="37"/>
-        <v>1.3934364942097592</v>
+        <v>1.3940968663282816</v>
       </c>
       <c r="AI70">
         <f t="shared" si="53"/>
-        <v>-2.7858609284558744E-2</v>
+        <v>-2.7801462548957101E-2</v>
       </c>
       <c r="AJ70">
         <f t="shared" si="38"/>
@@ -10333,7 +10330,7 @@
         <v>3</v>
       </c>
       <c r="L71">
-        <v>8.2036630078209799E-2</v>
+        <v>8.2118194659126606E-2</v>
       </c>
       <c r="M71">
         <v>0.99639999999999995</v>
@@ -10404,27 +10401,27 @@
       </c>
       <c r="AD71">
         <f t="shared" si="31"/>
-        <v>0.79183985185204575</v>
+        <v>0.79221648663135824</v>
       </c>
       <c r="AE71">
         <f t="shared" si="50"/>
-        <v>-2.692091488936299E-2</v>
+        <v>-2.685621295428664E-2</v>
       </c>
       <c r="AF71">
         <f t="shared" si="51"/>
-        <v>1.5567587888147285</v>
+        <v>1.5575767603084298</v>
       </c>
       <c r="AG71">
         <f t="shared" si="52"/>
-        <v>-0.16073848091395782</v>
+        <v>-0.16079064998101522</v>
       </c>
       <c r="AH71">
         <f t="shared" si="37"/>
-        <v>1.3655778849252005</v>
+        <v>1.3662954037793245</v>
       </c>
       <c r="AI71">
         <f t="shared" si="53"/>
-        <v>-0.14099866746838408</v>
+        <v>-0.1410444298079081</v>
       </c>
       <c r="AJ71">
         <f t="shared" si="38"/>
@@ -10466,7 +10463,7 @@
         <v>3</v>
       </c>
       <c r="L72">
-        <v>7.6325157952370798E-2</v>
+        <v>7.6416917074428201E-2</v>
       </c>
       <c r="M72">
         <v>0.99639999999999995</v>
@@ -10537,27 +10534,27 @@
       </c>
       <c r="AD72">
         <f t="shared" si="31"/>
-        <v>0.76491893696268276</v>
+        <v>0.7653602736770716</v>
       </c>
       <c r="AE72">
         <f t="shared" si="50"/>
-        <v>-0.13381756602459471</v>
+        <v>-0.13393443702672858</v>
       </c>
       <c r="AF72">
         <f t="shared" si="51"/>
-        <v>1.3960203079007707</v>
+        <v>1.3967861103274146</v>
       </c>
       <c r="AG72">
         <f t="shared" si="52"/>
-        <v>-2.2614347983990424E-2</v>
+        <v>-2.25024984801383E-2</v>
       </c>
       <c r="AH72">
         <f t="shared" si="37"/>
-        <v>1.2245792174568164</v>
+        <v>1.2252509739714164</v>
       </c>
       <c r="AI72">
         <f t="shared" si="53"/>
-        <v>-4.0608562356143629E-2</v>
+        <v>-4.0523722378936755E-2</v>
       </c>
       <c r="AJ72">
         <f t="shared" si="38"/>
@@ -10599,7 +10596,7 @@
         <v>3</v>
       </c>
       <c r="L73">
-        <v>5.1285866733537598E-2</v>
+        <v>5.1340047826274909E-2</v>
       </c>
       <c r="M73">
         <v>0.99639999999999995</v>
@@ -10670,27 +10667,27 @@
       </c>
       <c r="AD73">
         <f t="shared" si="31"/>
-        <v>0.63110137093808805</v>
+        <v>0.63142583665034302</v>
       </c>
       <c r="AE73">
         <f t="shared" si="50"/>
-        <v>0.11120321804060407</v>
+        <v>0.11143193854659028</v>
       </c>
       <c r="AF73">
         <f t="shared" si="51"/>
-        <v>1.3734059599167803</v>
+        <v>1.3742836118472763</v>
       </c>
       <c r="AG73">
         <f t="shared" si="52"/>
-        <v>0.16038478549843638</v>
+        <v>0.16022541961217751</v>
       </c>
       <c r="AH73">
         <f t="shared" si="37"/>
-        <v>1.1839706551006728</v>
+        <v>1.1847272515924796</v>
       </c>
       <c r="AI73">
         <f t="shared" si="53"/>
-        <v>0.13826274611934175</v>
+        <v>0.13812536173463585</v>
       </c>
       <c r="AJ73">
         <f t="shared" si="38"/>
@@ -10732,7 +10729,7 @@
         <v>3</v>
       </c>
       <c r="L74">
-        <v>7.1706032086672603E-2</v>
+        <v>7.1817098656174791E-2</v>
       </c>
       <c r="M74">
         <v>0.99639999999999995</v>
@@ -10803,27 +10800,27 @@
       </c>
       <c r="AD74">
         <f t="shared" si="31"/>
-        <v>0.74230458897869211</v>
+        <v>0.7428577751969333</v>
       </c>
       <c r="AE74">
         <f t="shared" si="50"/>
-        <v>4.918156745783242E-2</v>
+        <v>4.879348106558723E-2</v>
       </c>
       <c r="AF74">
         <f t="shared" si="51"/>
-        <v>1.5337907454152166</v>
+        <v>1.5345090314594538</v>
       </c>
       <c r="AG74">
         <f t="shared" si="52"/>
-        <v>3.73973930266287E-2</v>
+        <v>3.7213680478883626E-2</v>
       </c>
       <c r="AH74">
         <f t="shared" si="37"/>
-        <v>1.3222334012200145</v>
+        <v>1.3228526133271155</v>
       </c>
       <c r="AI74">
         <f t="shared" si="53"/>
-        <v>5.6001807939499049E-2</v>
+        <v>5.5851519952128115E-2</v>
       </c>
       <c r="AJ74">
         <f t="shared" si="38"/>
@@ -10865,7 +10862,7 @@
         <v>3</v>
       </c>
       <c r="L75">
-        <v>8.19600752141591E-2</v>
+        <v>8.1995804846405326E-2</v>
       </c>
       <c r="M75">
         <v>0.99639999999999995</v>
@@ -10936,27 +10933,27 @@
       </c>
       <c r="AD75">
         <f t="shared" si="31"/>
-        <v>0.79148615643652453</v>
+        <v>0.79165125626252053</v>
       </c>
       <c r="AE75">
         <f t="shared" si="50"/>
-        <v>-1.1784174431203831E-2</v>
+        <v>-1.1579800586703715E-2</v>
       </c>
       <c r="AF75">
         <f t="shared" si="51"/>
-        <v>1.5711881384418454</v>
+        <v>1.5717227119383375</v>
       </c>
       <c r="AG75">
         <f t="shared" si="52"/>
-        <v>-8.1631458379698429E-3</v>
+        <v>-7.9085494047554938E-3</v>
       </c>
       <c r="AH75">
         <f t="shared" si="37"/>
-        <v>1.3782352091595136</v>
+        <v>1.3787041332792436</v>
       </c>
       <c r="AI75">
         <f t="shared" si="53"/>
-        <v>-7.1606542438331644E-3</v>
+        <v>-6.937324039259174E-3</v>
       </c>
       <c r="AJ75">
         <f t="shared" si="38"/>
@@ -10998,7 +10995,7 @@
         <v>3</v>
       </c>
       <c r="L76">
-        <v>7.9432626090631495E-2</v>
+        <v>7.9511189396471574E-2</v>
       </c>
       <c r="M76">
         <v>0.99639999999999995</v>
@@ -11069,27 +11066,27 @@
       </c>
       <c r="AD76">
         <f t="shared" si="31"/>
-        <v>0.7797019820053207</v>
+        <v>0.78007145567581682</v>
       </c>
       <c r="AE76">
         <f t="shared" si="50"/>
-        <v>3.6210285932342101E-3</v>
+        <v>3.6712511819483318E-3</v>
       </c>
       <c r="AF76">
         <f t="shared" si="51"/>
-        <v>1.5630249926038755</v>
+        <v>1.563814162533582</v>
       </c>
       <c r="AG76">
         <f t="shared" si="52"/>
-        <v>-1.2240562062983518E-2</v>
+        <v>-1.216264955877433E-2</v>
       </c>
       <c r="AH76">
         <f t="shared" si="37"/>
-        <v>1.3710745549156804</v>
+        <v>1.3717668092399844</v>
       </c>
       <c r="AI76">
         <f t="shared" si="53"/>
-        <v>-3.4191425139049381E-2</v>
+        <v>-3.4136194606529502E-2</v>
       </c>
       <c r="AJ76">
         <f t="shared" si="38"/>
@@ -11131,7 +11128,7 @@
         <v>3</v>
       </c>
       <c r="L77">
-        <v>8.0204483056861897E-2</v>
+        <v>8.0294218792493488E-2</v>
       </c>
       <c r="M77">
         <v>0.99639999999999995</v>
@@ -11202,27 +11199,27 @@
       </c>
       <c r="AD77">
         <f t="shared" si="31"/>
-        <v>0.78332301059855491</v>
+        <v>0.78374270685776515</v>
       </c>
       <c r="AE77">
         <f t="shared" si="50"/>
-        <v>-1.5861590656217728E-2</v>
+        <v>-1.5833900740722551E-2</v>
       </c>
       <c r="AF77">
         <f t="shared" si="51"/>
-        <v>1.550784430540892</v>
-      </c>
-      <c r="AG77" s="3">
+        <v>1.5516515129748076</v>
+      </c>
+      <c r="AG77">
         <f t="shared" si="52"/>
-        <v>-5.626339253620416E-2</v>
+        <v>-5.6387946830586566E-2</v>
       </c>
       <c r="AH77">
         <f t="shared" si="37"/>
-        <v>1.336883129776631</v>
-      </c>
-      <c r="AI77" s="4">
+        <v>1.3376306146334549</v>
+      </c>
+      <c r="AI77">
         <f t="shared" si="53"/>
-        <v>-2.589976310585218E-2</v>
+        <v>-2.5995907489401171E-2</v>
       </c>
       <c r="AJ77">
         <f t="shared" si="38"/>
@@ -11264,7 +11261,7 @@
         <v>2</v>
       </c>
       <c r="L78">
-        <v>7.6854621987026195E-2</v>
+        <v>7.6948002138243987E-2</v>
       </c>
       <c r="M78">
         <v>0.99639999999999995</v>
@@ -11329,20 +11326,20 @@
       </c>
       <c r="AD78">
         <f t="shared" si="31"/>
-        <v>0.76746141994233719</v>
+        <v>0.7679088061170426</v>
       </c>
       <c r="AE78">
         <f t="shared" si="50"/>
-        <v>-4.0401801879986543E-2</v>
+        <v>-4.0554046089864126E-2</v>
       </c>
       <c r="AF78">
         <f t="shared" si="51"/>
-        <v>1.4945210380046878</v>
+        <v>1.4952635661442211</v>
       </c>
       <c r="AG78" s="1"/>
       <c r="AH78">
         <f t="shared" si="37"/>
-        <v>1.3109833666707789</v>
+        <v>1.3116347071440537</v>
       </c>
       <c r="AI78" s="1"/>
       <c r="AJ78">
@@ -11383,7 +11380,7 @@
         <v>1</v>
       </c>
       <c r="L79">
-        <v>6.8682889051971202E-2</v>
+        <v>6.8740728895327965E-2</v>
       </c>
       <c r="M79">
         <v>0.99639999999999995</v>
@@ -11430,7 +11427,7 @@
       <c r="AC79" s="1"/>
       <c r="AD79">
         <f t="shared" si="31"/>
-        <v>0.72705961806235064</v>
+        <v>0.72735476002717847</v>
       </c>
       <c r="AE79" s="1"/>
       <c r="AF79" s="1"/>
